--- a/output_files/output_QIP_incentive_august_2025_최종완성버전_v6.0_Complete.xlsx
+++ b/output_files/output_QIP_incentive_august_2025_최종완성버전_v6.0_Complete.xlsx
@@ -1869,7 +1869,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>TYPE-1</t>
+          <t>TYPE-2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">

--- a/output_files/output_QIP_incentive_august_2025_최종완성버전_v6.0_Complete.xlsx
+++ b/output_files/output_QIP_incentive_august_2025_최종완성버전_v6.0_Complete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN465"/>
+  <dimension ref="A1:AP465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,16 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>Talent_Pool_Bonus</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Talent_Pool_Member</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>Previous_Incentive</t>
         </is>
       </c>
@@ -788,6 +798,14 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -938,6 +956,14 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1084,6 +1110,14 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1234,6 +1268,14 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1380,6 +1422,14 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1526,6 +1576,14 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1672,6 +1730,14 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1822,6 +1888,14 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1968,6 +2042,14 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2114,6 +2196,14 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2260,6 +2350,14 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2406,6 +2504,14 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2552,6 +2658,14 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2698,6 +2812,14 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2844,6 +2966,14 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2990,6 +3120,14 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3136,6 +3274,14 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3282,6 +3428,14 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3428,6 +3582,14 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3574,6 +3736,14 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3728,6 +3898,14 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3874,6 +4052,14 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4024,6 +4210,14 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4170,6 +4364,14 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4322,6 +4524,14 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4472,6 +4682,14 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4626,6 +4844,14 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4772,6 +4998,14 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4918,6 +5152,14 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5072,6 +5314,14 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5222,6 +5472,14 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5368,6 +5626,14 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5514,6 +5780,14 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5660,6 +5934,14 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5814,6 +6096,14 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5960,6 +6250,14 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6110,6 +6408,14 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6256,6 +6562,14 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6410,6 +6724,14 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6556,6 +6878,14 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6702,6 +7032,14 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6856,6 +7194,14 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -7002,6 +7348,14 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7148,6 +7502,14 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7294,6 +7656,14 @@
       <c r="AN46" t="n">
         <v>0</v>
       </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7450,6 +7820,14 @@
       <c r="AN47" t="n">
         <v>0</v>
       </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7596,6 +7974,14 @@
       <c r="AN48" t="n">
         <v>0</v>
       </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7742,6 +8128,14 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7894,6 +8288,14 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -8044,6 +8446,14 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8190,6 +8600,14 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8334,6 +8752,14 @@
       <c r="AN53" t="n">
         <v>0</v>
       </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8480,6 +8906,14 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8630,6 +9064,14 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8776,6 +9218,14 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8930,6 +9380,14 @@
       <c r="AN57" t="n">
         <v>0</v>
       </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -9094,6 +9552,14 @@
       <c r="AN58" t="n">
         <v>0</v>
       </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9240,6 +9706,14 @@
       <c r="AN59" t="n">
         <v>0</v>
       </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9392,6 +9866,14 @@
       <c r="AN60" t="n">
         <v>0</v>
       </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9538,6 +10020,14 @@
       <c r="AN61" t="n">
         <v>0</v>
       </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9684,6 +10174,14 @@
       <c r="AN62" t="n">
         <v>0</v>
       </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9834,6 +10332,14 @@
       <c r="AN63" t="n">
         <v>0</v>
       </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9980,6 +10486,14 @@
       <c r="AN64" t="n">
         <v>0</v>
       </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -10134,6 +10648,14 @@
       <c r="AN65" t="n">
         <v>0</v>
       </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10284,6 +10806,14 @@
       <c r="AN66" t="n">
         <v>0</v>
       </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10438,6 +10968,14 @@
       <c r="AN67" t="n">
         <v>0</v>
       </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -10592,6 +11130,14 @@
       <c r="AN68" t="n">
         <v>0</v>
       </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10748,6 +11294,14 @@
       <c r="AN69" t="n">
         <v>0</v>
       </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10894,6 +11448,14 @@
       <c r="AN70" t="n">
         <v>0</v>
       </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -11040,6 +11602,14 @@
       <c r="AN71" t="n">
         <v>0</v>
       </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -11194,6 +11764,14 @@
       <c r="AN72" t="n">
         <v>0</v>
       </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -11348,6 +11926,14 @@
       <c r="AN73" t="n">
         <v>0</v>
       </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -11504,6 +12090,14 @@
       <c r="AN74" t="n">
         <v>0</v>
       </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -11650,6 +12244,14 @@
       <c r="AN75" t="n">
         <v>0</v>
       </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -11796,6 +12398,14 @@
       <c r="AN76" t="n">
         <v>0</v>
       </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11946,6 +12556,14 @@
       <c r="AN77" t="n">
         <v>0</v>
       </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -12092,6 +12710,14 @@
       <c r="AN78" t="n">
         <v>0</v>
       </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -12238,6 +12864,14 @@
       <c r="AN79" t="n">
         <v>0</v>
       </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -12384,6 +13018,14 @@
       <c r="AN80" t="n">
         <v>0</v>
       </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -12530,6 +13172,14 @@
       <c r="AN81" t="n">
         <v>0</v>
       </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -12676,6 +13326,14 @@
       <c r="AN82" t="n">
         <v>0</v>
       </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -12832,6 +13490,14 @@
       <c r="AN83" t="n">
         <v>0</v>
       </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -12982,6 +13648,14 @@
       <c r="AN84" t="n">
         <v>0</v>
       </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -13128,6 +13802,14 @@
       <c r="AN85" t="n">
         <v>0</v>
       </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -13278,6 +13960,14 @@
       <c r="AN86" t="n">
         <v>0</v>
       </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -13424,6 +14114,14 @@
       <c r="AN87" t="n">
         <v>0</v>
       </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -13580,6 +14278,14 @@
       <c r="AN88" t="n">
         <v>0</v>
       </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -13726,6 +14432,14 @@
       <c r="AN89" t="n">
         <v>0</v>
       </c>
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -13872,6 +14586,14 @@
       <c r="AN90" t="n">
         <v>0</v>
       </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -14018,6 +14740,14 @@
       <c r="AN91" t="n">
         <v>0</v>
       </c>
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -14174,6 +14904,14 @@
       <c r="AN92" t="n">
         <v>0</v>
       </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -14320,6 +15058,14 @@
       <c r="AN93" t="n">
         <v>0</v>
       </c>
+      <c r="AO93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -14470,6 +15216,14 @@
       <c r="AN94" t="n">
         <v>0</v>
       </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -14616,6 +15370,14 @@
       <c r="AN95" t="n">
         <v>0</v>
       </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -14772,6 +15534,14 @@
       <c r="AN96" t="n">
         <v>0</v>
       </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -14918,6 +15688,14 @@
       <c r="AN97" t="n">
         <v>0</v>
       </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -15068,6 +15846,14 @@
       <c r="AN98" t="n">
         <v>0</v>
       </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -15222,6 +16008,14 @@
       <c r="AN99" t="n">
         <v>0</v>
       </c>
+      <c r="AO99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -15368,6 +16162,14 @@
       <c r="AN100" t="n">
         <v>0</v>
       </c>
+      <c r="AO100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -15522,6 +16324,14 @@
       <c r="AN101" t="n">
         <v>0</v>
       </c>
+      <c r="AO101" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -15678,6 +16488,14 @@
       <c r="AN102" t="n">
         <v>0</v>
       </c>
+      <c r="AO102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -15828,6 +16646,14 @@
       <c r="AN103" t="n">
         <v>0</v>
       </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -15982,6 +16808,14 @@
       <c r="AN104" t="n">
         <v>0</v>
       </c>
+      <c r="AO104" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -16138,6 +16972,14 @@
       <c r="AN105" t="n">
         <v>0</v>
       </c>
+      <c r="AO105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -16284,6 +17126,14 @@
       <c r="AN106" t="n">
         <v>0</v>
       </c>
+      <c r="AO106" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -16436,6 +17286,14 @@
       <c r="AN107" t="n">
         <v>0</v>
       </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -16592,6 +17450,14 @@
       <c r="AN108" t="n">
         <v>0</v>
       </c>
+      <c r="AO108" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -16738,6 +17604,14 @@
       <c r="AN109" t="n">
         <v>0</v>
       </c>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -16884,6 +17758,14 @@
       <c r="AN110" t="n">
         <v>0</v>
       </c>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -17030,6 +17912,14 @@
       <c r="AN111" t="n">
         <v>0</v>
       </c>
+      <c r="AO111" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -17176,6 +18066,14 @@
       <c r="AN112" t="n">
         <v>0</v>
       </c>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -17332,6 +18230,14 @@
       <c r="AN113" t="n">
         <v>0</v>
       </c>
+      <c r="AO113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -17478,6 +18384,14 @@
       <c r="AN114" t="n">
         <v>0</v>
       </c>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -17624,6 +18538,14 @@
       <c r="AN115" t="n">
         <v>0</v>
       </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -17776,6 +18698,14 @@
       <c r="AN116" t="n">
         <v>0</v>
       </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -17932,6 +18862,14 @@
       <c r="AN117" t="n">
         <v>0</v>
       </c>
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -18082,6 +19020,14 @@
       <c r="AN118" t="n">
         <v>0</v>
       </c>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -18232,6 +19178,14 @@
       <c r="AN119" t="n">
         <v>0</v>
       </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -18388,6 +19342,14 @@
       <c r="AN120" t="n">
         <v>0</v>
       </c>
+      <c r="AO120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -18534,6 +19496,14 @@
       <c r="AN121" t="n">
         <v>0</v>
       </c>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -18694,6 +19664,14 @@
       <c r="AN122" t="n">
         <v>0</v>
       </c>
+      <c r="AO122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -18844,6 +19822,14 @@
       <c r="AN123" t="n">
         <v>0</v>
       </c>
+      <c r="AO123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -18990,6 +19976,14 @@
       <c r="AN124" t="n">
         <v>0</v>
       </c>
+      <c r="AO124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -19146,6 +20140,14 @@
       <c r="AN125" t="n">
         <v>0</v>
       </c>
+      <c r="AO125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -19292,6 +20294,14 @@
       <c r="AN126" t="n">
         <v>0</v>
       </c>
+      <c r="AO126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -19446,6 +20456,14 @@
       <c r="AN127" t="n">
         <v>0</v>
       </c>
+      <c r="AO127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -19592,6 +20610,14 @@
       <c r="AN128" t="n">
         <v>0</v>
       </c>
+      <c r="AO128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -19738,6 +20764,14 @@
       <c r="AN129" t="n">
         <v>0</v>
       </c>
+      <c r="AO129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -19884,6 +20918,14 @@
       <c r="AN130" t="n">
         <v>0</v>
       </c>
+      <c r="AO130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -20030,6 +21072,14 @@
       <c r="AN131" t="n">
         <v>0</v>
       </c>
+      <c r="AO131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -20186,6 +21236,14 @@
       <c r="AN132" t="n">
         <v>0</v>
       </c>
+      <c r="AO132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -20340,6 +21398,14 @@
       <c r="AN133" t="n">
         <v>0</v>
       </c>
+      <c r="AO133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -20492,6 +21558,14 @@
       <c r="AN134" t="n">
         <v>0</v>
       </c>
+      <c r="AO134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -20638,6 +21712,14 @@
       <c r="AN135" t="n">
         <v>0</v>
       </c>
+      <c r="AO135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -20790,6 +21872,14 @@
       <c r="AN136" t="n">
         <v>0</v>
       </c>
+      <c r="AO136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -20942,6 +22032,14 @@
       <c r="AN137" t="n">
         <v>0</v>
       </c>
+      <c r="AO137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -21098,6 +22196,14 @@
       <c r="AN138" t="n">
         <v>0</v>
       </c>
+      <c r="AO138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -21254,6 +22360,14 @@
       <c r="AN139" t="n">
         <v>0</v>
       </c>
+      <c r="AO139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -21404,6 +22518,14 @@
       <c r="AN140" t="n">
         <v>0</v>
       </c>
+      <c r="AO140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -21550,6 +22672,14 @@
       <c r="AN141" t="n">
         <v>0</v>
       </c>
+      <c r="AO141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -21696,6 +22826,14 @@
       <c r="AN142" t="n">
         <v>0</v>
       </c>
+      <c r="AO142" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -21842,6 +22980,14 @@
       <c r="AN143" t="n">
         <v>0</v>
       </c>
+      <c r="AO143" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -21992,6 +23138,14 @@
       <c r="AN144" t="n">
         <v>0</v>
       </c>
+      <c r="AO144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -22148,6 +23302,14 @@
       <c r="AN145" t="n">
         <v>0</v>
       </c>
+      <c r="AO145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -22294,6 +23456,14 @@
       <c r="AN146" t="n">
         <v>0</v>
       </c>
+      <c r="AO146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -22444,6 +23614,14 @@
       <c r="AN147" t="n">
         <v>0</v>
       </c>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -22590,6 +23768,14 @@
       <c r="AN148" t="n">
         <v>0</v>
       </c>
+      <c r="AO148" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -22736,6 +23922,14 @@
       <c r="AN149" t="n">
         <v>0</v>
       </c>
+      <c r="AO149" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -22890,6 +24084,14 @@
       <c r="AN150" t="n">
         <v>0</v>
       </c>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -23036,6 +24238,14 @@
       <c r="AN151" t="n">
         <v>0</v>
       </c>
+      <c r="AO151" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -23196,6 +24406,14 @@
       <c r="AN152" t="n">
         <v>0</v>
       </c>
+      <c r="AO152" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -23342,6 +24560,14 @@
       <c r="AN153" t="n">
         <v>0</v>
       </c>
+      <c r="AO153" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -23488,6 +24714,14 @@
       <c r="AN154" t="n">
         <v>0</v>
       </c>
+      <c r="AO154" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -23642,6 +24876,14 @@
       <c r="AN155" t="n">
         <v>0</v>
       </c>
+      <c r="AO155" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -23796,6 +25038,14 @@
       <c r="AN156" t="n">
         <v>0</v>
       </c>
+      <c r="AO156" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -23942,6 +25192,14 @@
       <c r="AN157" t="n">
         <v>0</v>
       </c>
+      <c r="AO157" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -24088,6 +25346,14 @@
       <c r="AN158" t="n">
         <v>0</v>
       </c>
+      <c r="AO158" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -24234,6 +25500,14 @@
       <c r="AN159" t="n">
         <v>0</v>
       </c>
+      <c r="AO159" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -24380,6 +25654,14 @@
       <c r="AN160" t="n">
         <v>0</v>
       </c>
+      <c r="AO160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -24526,6 +25808,14 @@
       <c r="AN161" t="n">
         <v>0</v>
       </c>
+      <c r="AO161" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -24672,6 +25962,14 @@
       <c r="AN162" t="n">
         <v>0</v>
       </c>
+      <c r="AO162" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -24832,6 +26130,14 @@
       <c r="AN163" t="n">
         <v>0</v>
       </c>
+      <c r="AO163" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -24984,6 +26290,14 @@
       <c r="AN164" t="n">
         <v>0</v>
       </c>
+      <c r="AO164" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -25130,6 +26444,14 @@
       <c r="AN165" t="n">
         <v>0</v>
       </c>
+      <c r="AO165" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -25280,6 +26602,14 @@
       <c r="AN166" t="n">
         <v>0</v>
       </c>
+      <c r="AO166" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -25426,6 +26756,14 @@
       <c r="AN167" t="n">
         <v>0</v>
       </c>
+      <c r="AO167" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -25572,6 +26910,14 @@
       <c r="AN168" t="n">
         <v>0</v>
       </c>
+      <c r="AO168" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -25718,6 +27064,14 @@
       <c r="AN169" t="n">
         <v>0</v>
       </c>
+      <c r="AO169" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -25870,6 +27224,14 @@
       <c r="AN170" t="n">
         <v>0</v>
       </c>
+      <c r="AO170" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -26026,6 +27388,14 @@
       <c r="AN171" t="n">
         <v>0</v>
       </c>
+      <c r="AO171" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -26176,6 +27546,14 @@
       <c r="AN172" t="n">
         <v>0</v>
       </c>
+      <c r="AO172" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -26330,6 +27708,14 @@
       <c r="AN173" t="n">
         <v>0</v>
       </c>
+      <c r="AO173" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -26480,6 +27866,14 @@
       <c r="AN174" t="n">
         <v>0</v>
       </c>
+      <c r="AO174" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -26626,6 +28020,14 @@
       <c r="AN175" t="n">
         <v>0</v>
       </c>
+      <c r="AO175" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -26786,6 +28188,14 @@
       <c r="AN176" t="n">
         <v>0</v>
       </c>
+      <c r="AO176" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -26932,6 +28342,14 @@
       <c r="AN177" t="n">
         <v>0</v>
       </c>
+      <c r="AO177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -27078,6 +28496,14 @@
       <c r="AN178" t="n">
         <v>0</v>
       </c>
+      <c r="AO178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -27224,6 +28650,14 @@
       <c r="AN179" t="n">
         <v>0</v>
       </c>
+      <c r="AO179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -27374,6 +28808,14 @@
       <c r="AN180" t="n">
         <v>0</v>
       </c>
+      <c r="AO180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -27528,6 +28970,14 @@
       <c r="AN181" t="n">
         <v>0</v>
       </c>
+      <c r="AO181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -27680,6 +29130,14 @@
       <c r="AN182" t="n">
         <v>0</v>
       </c>
+      <c r="AO182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -27834,6 +29292,14 @@
       <c r="AN183" t="n">
         <v>0</v>
       </c>
+      <c r="AO183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -27990,6 +29456,14 @@
       <c r="AN184" t="n">
         <v>0</v>
       </c>
+      <c r="AO184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -28136,6 +29610,14 @@
       <c r="AN185" t="n">
         <v>0</v>
       </c>
+      <c r="AO185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -28282,6 +29764,14 @@
       <c r="AN186" t="n">
         <v>0</v>
       </c>
+      <c r="AO186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -28428,6 +29918,14 @@
       <c r="AN187" t="n">
         <v>0</v>
       </c>
+      <c r="AO187" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -28574,6 +30072,14 @@
       <c r="AN188" t="n">
         <v>0</v>
       </c>
+      <c r="AO188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -28730,6 +30236,14 @@
       <c r="AN189" t="n">
         <v>0</v>
       </c>
+      <c r="AO189" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -28786,7 +30300,7 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>254659</v>
+        <v>404659</v>
       </c>
       <c r="M190" t="n">
         <v>623060116</v>
@@ -28817,7 +30331,7 @@
         <v>623060116</v>
       </c>
       <c r="W190" t="n">
-        <v>254659</v>
+        <v>404659</v>
       </c>
       <c r="X190" t="n">
         <v>13</v>
@@ -28874,6 +30388,14 @@
       </c>
       <c r="AM190" t="inlineStr"/>
       <c r="AN190" t="n">
+        <v>150000</v>
+      </c>
+      <c r="AO190" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AP190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29022,6 +30544,14 @@
       <c r="AN191" t="n">
         <v>0</v>
       </c>
+      <c r="AO191" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -29176,6 +30706,14 @@
       <c r="AN192" t="n">
         <v>0</v>
       </c>
+      <c r="AO192" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -29332,6 +30870,14 @@
       <c r="AN193" t="n">
         <v>0</v>
       </c>
+      <c r="AO193" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -29486,6 +31032,14 @@
       <c r="AN194" t="n">
         <v>0</v>
       </c>
+      <c r="AO194" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -29640,6 +31194,14 @@
       <c r="AN195" t="n">
         <v>0</v>
       </c>
+      <c r="AO195" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -29786,6 +31348,14 @@
       <c r="AN196" t="n">
         <v>0</v>
       </c>
+      <c r="AO196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -29936,6 +31506,14 @@
       <c r="AN197" t="n">
         <v>0</v>
       </c>
+      <c r="AO197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -30082,6 +31660,14 @@
       <c r="AN198" t="n">
         <v>0</v>
       </c>
+      <c r="AO198" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -30228,6 +31814,14 @@
       <c r="AN199" t="n">
         <v>0</v>
       </c>
+      <c r="AO199" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -30384,6 +31978,14 @@
       <c r="AN200" t="n">
         <v>0</v>
       </c>
+      <c r="AO200" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -30540,6 +32142,14 @@
       <c r="AN201" t="n">
         <v>0</v>
       </c>
+      <c r="AO201" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -30686,6 +32296,14 @@
       <c r="AN202" t="n">
         <v>0</v>
       </c>
+      <c r="AO202" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -30838,6 +32456,14 @@
       <c r="AN203" t="n">
         <v>0</v>
       </c>
+      <c r="AO203" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -30984,6 +32610,14 @@
       <c r="AN204" t="n">
         <v>0</v>
       </c>
+      <c r="AO204" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -31140,6 +32774,14 @@
       <c r="AN205" t="n">
         <v>0</v>
       </c>
+      <c r="AO205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -31296,6 +32938,14 @@
       <c r="AN206" t="n">
         <v>0</v>
       </c>
+      <c r="AO206" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -31450,6 +33100,14 @@
       <c r="AN207" t="n">
         <v>0</v>
       </c>
+      <c r="AO207" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -31596,6 +33254,14 @@
       <c r="AN208" t="n">
         <v>0</v>
       </c>
+      <c r="AO208" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -31742,6 +33408,14 @@
       <c r="AN209" t="n">
         <v>0</v>
       </c>
+      <c r="AO209" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -31896,6 +33570,14 @@
       <c r="AN210" t="n">
         <v>0</v>
       </c>
+      <c r="AO210" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -32050,6 +33732,14 @@
       <c r="AN211" t="n">
         <v>0</v>
       </c>
+      <c r="AO211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -32204,6 +33894,14 @@
       <c r="AN212" t="n">
         <v>0</v>
       </c>
+      <c r="AO212" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -32350,6 +34048,14 @@
       <c r="AN213" t="n">
         <v>0</v>
       </c>
+      <c r="AO213" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -32504,6 +34210,14 @@
       <c r="AN214" t="n">
         <v>0</v>
       </c>
+      <c r="AO214" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -32654,6 +34368,14 @@
       <c r="AN215" t="n">
         <v>0</v>
       </c>
+      <c r="AO215" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -32800,6 +34522,14 @@
       <c r="AN216" t="n">
         <v>0</v>
       </c>
+      <c r="AO216" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -32946,6 +34676,14 @@
       <c r="AN217" t="n">
         <v>0</v>
       </c>
+      <c r="AO217" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -33098,6 +34836,14 @@
       <c r="AN218" t="n">
         <v>0</v>
       </c>
+      <c r="AO218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -33250,6 +34996,14 @@
       <c r="AN219" t="n">
         <v>0</v>
       </c>
+      <c r="AO219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -33404,6 +35158,14 @@
       <c r="AN220" t="n">
         <v>0</v>
       </c>
+      <c r="AO220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -33558,6 +35320,14 @@
       <c r="AN221" t="n">
         <v>0</v>
       </c>
+      <c r="AO221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -33704,6 +35474,14 @@
       <c r="AN222" t="n">
         <v>0</v>
       </c>
+      <c r="AO222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -33860,6 +35638,14 @@
       <c r="AN223" t="n">
         <v>0</v>
       </c>
+      <c r="AO223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -34006,6 +35792,14 @@
       <c r="AN224" t="n">
         <v>0</v>
       </c>
+      <c r="AO224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -34156,6 +35950,14 @@
       <c r="AN225" t="n">
         <v>0</v>
       </c>
+      <c r="AO225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -34302,6 +36104,14 @@
       <c r="AN226" t="n">
         <v>0</v>
       </c>
+      <c r="AO226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -34458,6 +36268,14 @@
       <c r="AN227" t="n">
         <v>0</v>
       </c>
+      <c r="AO227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -34604,6 +36422,14 @@
       <c r="AN228" t="n">
         <v>0</v>
       </c>
+      <c r="AO228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -34750,6 +36576,14 @@
       <c r="AN229" t="n">
         <v>0</v>
       </c>
+      <c r="AO229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -34896,6 +36730,14 @@
       <c r="AN230" t="n">
         <v>0</v>
       </c>
+      <c r="AO230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -35052,6 +36894,14 @@
       <c r="AN231" t="n">
         <v>0</v>
       </c>
+      <c r="AO231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -35206,6 +37056,14 @@
       <c r="AN232" t="n">
         <v>0</v>
       </c>
+      <c r="AO232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -35352,6 +37210,14 @@
       <c r="AN233" t="n">
         <v>0</v>
       </c>
+      <c r="AO233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -35508,6 +37374,14 @@
       <c r="AN234" t="n">
         <v>0</v>
       </c>
+      <c r="AO234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -35660,6 +37534,14 @@
       <c r="AN235" t="n">
         <v>0</v>
       </c>
+      <c r="AO235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -35806,6 +37688,14 @@
       <c r="AN236" t="n">
         <v>0</v>
       </c>
+      <c r="AO236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -35960,6 +37850,14 @@
       <c r="AN237" t="n">
         <v>0</v>
       </c>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -36106,6 +38004,14 @@
       <c r="AN238" t="n">
         <v>0</v>
       </c>
+      <c r="AO238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -36256,6 +38162,14 @@
       <c r="AN239" t="n">
         <v>0</v>
       </c>
+      <c r="AO239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -36402,6 +38316,14 @@
       <c r="AN240" t="n">
         <v>0</v>
       </c>
+      <c r="AO240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -36548,6 +38470,14 @@
       <c r="AN241" t="n">
         <v>0</v>
       </c>
+      <c r="AO241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -36694,6 +38624,14 @@
       <c r="AN242" t="n">
         <v>0</v>
       </c>
+      <c r="AO242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -36842,6 +38780,14 @@
       <c r="AN243" t="n">
         <v>0</v>
       </c>
+      <c r="AO243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -36988,6 +38934,14 @@
       <c r="AN244" t="n">
         <v>0</v>
       </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -37134,6 +39088,14 @@
       <c r="AN245" t="n">
         <v>0</v>
       </c>
+      <c r="AO245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -37288,6 +39250,14 @@
       <c r="AN246" t="n">
         <v>0</v>
       </c>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -37440,6 +39410,14 @@
       <c r="AN247" t="n">
         <v>0</v>
       </c>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -37594,6 +39572,14 @@
       <c r="AN248" t="n">
         <v>0</v>
       </c>
+      <c r="AO248" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -37750,6 +39736,14 @@
       <c r="AN249" t="n">
         <v>0</v>
       </c>
+      <c r="AO249" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -37896,6 +39890,14 @@
       <c r="AN250" t="n">
         <v>0</v>
       </c>
+      <c r="AO250" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -38048,6 +40050,14 @@
       <c r="AN251" t="n">
         <v>0</v>
       </c>
+      <c r="AO251" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -38202,6 +40212,14 @@
       <c r="AN252" t="n">
         <v>0</v>
       </c>
+      <c r="AO252" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -38358,6 +40376,14 @@
       <c r="AN253" t="n">
         <v>0</v>
       </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -38512,6 +40538,14 @@
       <c r="AN254" t="n">
         <v>0</v>
       </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -38668,6 +40702,14 @@
       <c r="AN255" t="n">
         <v>0</v>
       </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -38822,6 +40864,14 @@
       <c r="AN256" t="n">
         <v>0</v>
       </c>
+      <c r="AO256" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -38976,6 +41026,14 @@
       <c r="AN257" t="n">
         <v>0</v>
       </c>
+      <c r="AO257" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -39130,6 +41188,14 @@
       <c r="AN258" t="n">
         <v>0</v>
       </c>
+      <c r="AO258" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -39276,6 +41342,14 @@
       <c r="AN259" t="n">
         <v>0</v>
       </c>
+      <c r="AO259" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -39430,6 +41504,14 @@
       <c r="AN260" t="n">
         <v>0</v>
       </c>
+      <c r="AO260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -39584,6 +41666,14 @@
       <c r="AN261" t="n">
         <v>0</v>
       </c>
+      <c r="AO261" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -39736,6 +41826,14 @@
       <c r="AN262" t="n">
         <v>0</v>
       </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -39886,6 +41984,14 @@
       <c r="AN263" t="n">
         <v>0</v>
       </c>
+      <c r="AO263" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -40032,6 +42138,14 @@
       <c r="AN264" t="n">
         <v>0</v>
       </c>
+      <c r="AO264" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -40178,6 +42292,14 @@
       <c r="AN265" t="n">
         <v>0</v>
       </c>
+      <c r="AO265" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -40330,6 +42452,14 @@
       <c r="AN266" t="n">
         <v>0</v>
       </c>
+      <c r="AO266" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -40486,6 +42616,14 @@
       <c r="AN267" t="n">
         <v>0</v>
       </c>
+      <c r="AO267" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -40642,6 +42780,14 @@
       <c r="AN268" t="n">
         <v>0</v>
       </c>
+      <c r="AO268" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -40800,6 +42946,14 @@
       <c r="AN269" t="n">
         <v>0</v>
       </c>
+      <c r="AO269" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -40956,6 +43110,14 @@
       <c r="AN270" t="n">
         <v>0</v>
       </c>
+      <c r="AO270" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -41106,6 +43268,14 @@
       <c r="AN271" t="n">
         <v>0</v>
       </c>
+      <c r="AO271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -41252,6 +43422,14 @@
       <c r="AN272" t="n">
         <v>0</v>
       </c>
+      <c r="AO272" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -41398,6 +43576,14 @@
       <c r="AN273" t="n">
         <v>0</v>
       </c>
+      <c r="AO273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -41554,6 +43740,14 @@
       <c r="AN274" t="n">
         <v>0</v>
       </c>
+      <c r="AO274" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -41708,6 +43902,14 @@
       <c r="AN275" t="n">
         <v>0</v>
       </c>
+      <c r="AO275" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -41854,6 +44056,14 @@
       <c r="AN276" t="n">
         <v>0</v>
       </c>
+      <c r="AO276" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -42008,6 +44218,14 @@
       <c r="AN277" t="n">
         <v>0</v>
       </c>
+      <c r="AO277" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -42154,6 +44372,14 @@
       <c r="AN278" t="n">
         <v>0</v>
       </c>
+      <c r="AO278" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -42300,6 +44526,14 @@
       <c r="AN279" t="n">
         <v>0</v>
       </c>
+      <c r="AO279" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -42456,6 +44690,14 @@
       <c r="AN280" t="n">
         <v>0</v>
       </c>
+      <c r="AO280" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -42602,6 +44844,14 @@
       <c r="AN281" t="n">
         <v>0</v>
       </c>
+      <c r="AO281" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -42756,6 +45006,14 @@
       <c r="AN282" t="n">
         <v>0</v>
       </c>
+      <c r="AO282" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -42912,6 +45170,14 @@
       <c r="AN283" t="n">
         <v>0</v>
       </c>
+      <c r="AO283" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -43068,6 +45334,14 @@
       <c r="AN284" t="n">
         <v>0</v>
       </c>
+      <c r="AO284" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -43214,6 +45488,14 @@
       <c r="AN285" t="n">
         <v>0</v>
       </c>
+      <c r="AO285" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -43360,6 +45642,14 @@
       <c r="AN286" t="n">
         <v>0</v>
       </c>
+      <c r="AO286" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -43516,6 +45806,14 @@
       <c r="AN287" t="n">
         <v>0</v>
       </c>
+      <c r="AO287" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -43672,6 +45970,14 @@
       <c r="AN288" t="n">
         <v>0</v>
       </c>
+      <c r="AO288" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -43818,6 +46124,14 @@
       <c r="AN289" t="n">
         <v>0</v>
       </c>
+      <c r="AO289" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -43968,6 +46282,14 @@
       <c r="AN290" t="n">
         <v>0</v>
       </c>
+      <c r="AO290" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -44114,6 +46436,14 @@
       <c r="AN291" t="n">
         <v>0</v>
       </c>
+      <c r="AO291" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -44260,6 +46590,14 @@
       <c r="AN292" t="n">
         <v>0</v>
       </c>
+      <c r="AO292" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -44406,6 +46744,14 @@
       <c r="AN293" t="n">
         <v>0</v>
       </c>
+      <c r="AO293" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -44552,6 +46898,14 @@
       <c r="AN294" t="n">
         <v>0</v>
       </c>
+      <c r="AO294" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -44708,6 +47062,14 @@
       <c r="AN295" t="n">
         <v>0</v>
       </c>
+      <c r="AO295" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -44854,6 +47216,14 @@
       <c r="AN296" t="n">
         <v>0</v>
       </c>
+      <c r="AO296" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -45000,6 +47370,14 @@
       <c r="AN297" t="n">
         <v>0</v>
       </c>
+      <c r="AO297" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -45146,6 +47524,14 @@
       <c r="AN298" t="n">
         <v>0</v>
       </c>
+      <c r="AO298" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -45292,6 +47678,14 @@
       <c r="AN299" t="n">
         <v>0</v>
       </c>
+      <c r="AO299" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -45446,6 +47840,14 @@
       <c r="AN300" t="n">
         <v>0</v>
       </c>
+      <c r="AO300" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -45596,6 +47998,14 @@
       <c r="AN301" t="n">
         <v>0</v>
       </c>
+      <c r="AO301" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -45748,6 +48158,14 @@
       <c r="AN302" t="n">
         <v>0</v>
       </c>
+      <c r="AO302" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -45894,6 +48312,14 @@
       <c r="AN303" t="n">
         <v>0</v>
       </c>
+      <c r="AO303" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -46050,6 +48476,14 @@
       <c r="AN304" t="n">
         <v>0</v>
       </c>
+      <c r="AO304" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -46206,6 +48640,14 @@
       <c r="AN305" t="n">
         <v>0</v>
       </c>
+      <c r="AO305" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -46356,6 +48798,14 @@
       <c r="AN306" t="n">
         <v>0</v>
       </c>
+      <c r="AO306" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -46512,6 +48962,14 @@
       <c r="AN307" t="n">
         <v>0</v>
       </c>
+      <c r="AO307" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -46666,6 +49124,14 @@
       <c r="AN308" t="n">
         <v>0</v>
       </c>
+      <c r="AO308" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -46816,6 +49282,14 @@
       <c r="AN309" t="n">
         <v>0</v>
       </c>
+      <c r="AO309" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -46966,6 +49440,14 @@
       <c r="AN310" t="n">
         <v>0</v>
       </c>
+      <c r="AO310" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -47120,6 +49602,14 @@
       <c r="AN311" t="n">
         <v>0</v>
       </c>
+      <c r="AO311" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -47270,6 +49760,14 @@
       <c r="AN312" t="n">
         <v>0</v>
       </c>
+      <c r="AO312" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -47416,6 +49914,14 @@
       <c r="AN313" t="n">
         <v>0</v>
       </c>
+      <c r="AO313" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -47566,6 +50072,14 @@
       <c r="AN314" t="n">
         <v>0</v>
       </c>
+      <c r="AO314" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -47712,6 +50226,14 @@
       <c r="AN315" t="n">
         <v>0</v>
       </c>
+      <c r="AO315" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -47862,6 +50384,14 @@
       <c r="AN316" t="n">
         <v>0</v>
       </c>
+      <c r="AO316" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -48018,6 +50548,14 @@
       <c r="AN317" t="n">
         <v>0</v>
       </c>
+      <c r="AO317" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -48172,6 +50710,14 @@
       <c r="AN318" t="n">
         <v>0</v>
       </c>
+      <c r="AO318" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -48322,6 +50868,14 @@
       <c r="AN319" t="n">
         <v>0</v>
       </c>
+      <c r="AO319" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -48468,6 +51022,14 @@
       <c r="AN320" t="n">
         <v>0</v>
       </c>
+      <c r="AO320" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -48618,6 +51180,14 @@
       <c r="AN321" t="n">
         <v>0</v>
       </c>
+      <c r="AO321" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -48764,6 +51334,14 @@
       <c r="AN322" t="n">
         <v>0</v>
       </c>
+      <c r="AO322" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -48910,6 +51488,14 @@
       <c r="AN323" t="n">
         <v>0</v>
       </c>
+      <c r="AO323" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -49056,6 +51642,14 @@
       <c r="AN324" t="n">
         <v>0</v>
       </c>
+      <c r="AO324" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -49202,6 +51796,14 @@
       <c r="AN325" t="n">
         <v>0</v>
       </c>
+      <c r="AO325" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -49356,6 +51958,14 @@
       <c r="AN326" t="n">
         <v>0</v>
       </c>
+      <c r="AO326" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -49506,6 +52116,14 @@
       <c r="AN327" t="n">
         <v>0</v>
       </c>
+      <c r="AO327" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -49652,6 +52270,14 @@
       <c r="AN328" t="n">
         <v>0</v>
       </c>
+      <c r="AO328" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -49810,6 +52436,14 @@
       <c r="AN329" t="n">
         <v>0</v>
       </c>
+      <c r="AO329" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -49960,6 +52594,14 @@
       <c r="AN330" t="n">
         <v>0</v>
       </c>
+      <c r="AO330" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -50118,6 +52760,14 @@
       <c r="AN331" t="n">
         <v>0</v>
       </c>
+      <c r="AO331" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -50264,6 +52914,14 @@
       <c r="AN332" t="n">
         <v>0</v>
       </c>
+      <c r="AO332" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -50410,6 +53068,14 @@
       <c r="AN333" t="n">
         <v>0</v>
       </c>
+      <c r="AO333" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -50556,6 +53222,14 @@
       <c r="AN334" t="n">
         <v>0</v>
       </c>
+      <c r="AO334" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -50706,6 +53380,14 @@
       <c r="AN335" t="n">
         <v>0</v>
       </c>
+      <c r="AO335" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -50862,6 +53544,14 @@
       <c r="AN336" t="n">
         <v>0</v>
       </c>
+      <c r="AO336" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -51012,6 +53702,14 @@
       <c r="AN337" t="n">
         <v>0</v>
       </c>
+      <c r="AO337" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -51158,6 +53856,14 @@
       <c r="AN338" t="n">
         <v>0</v>
       </c>
+      <c r="AO338" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -51304,6 +54010,14 @@
       <c r="AN339" t="n">
         <v>0</v>
       </c>
+      <c r="AO339" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -51456,6 +54170,14 @@
       <c r="AN340" t="n">
         <v>0</v>
       </c>
+      <c r="AO340" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -51608,6 +54330,14 @@
       <c r="AN341" t="n">
         <v>0</v>
       </c>
+      <c r="AO341" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -51754,6 +54484,14 @@
       <c r="AN342" t="n">
         <v>0</v>
       </c>
+      <c r="AO342" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -51908,6 +54646,14 @@
       <c r="AN343" t="n">
         <v>0</v>
       </c>
+      <c r="AO343" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -52054,6 +54800,14 @@
       <c r="AN344" t="n">
         <v>0</v>
       </c>
+      <c r="AO344" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -52208,6 +54962,14 @@
       <c r="AN345" t="n">
         <v>0</v>
       </c>
+      <c r="AO345" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -52358,6 +55120,14 @@
       <c r="AN346" t="n">
         <v>0</v>
       </c>
+      <c r="AO346" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -52504,6 +55274,14 @@
       <c r="AN347" t="n">
         <v>0</v>
       </c>
+      <c r="AO347" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -52660,6 +55438,14 @@
       <c r="AN348" t="n">
         <v>0</v>
       </c>
+      <c r="AO348" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -52816,6 +55602,14 @@
       <c r="AN349" t="n">
         <v>0</v>
       </c>
+      <c r="AO349" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -52972,6 +55766,14 @@
       <c r="AN350" t="n">
         <v>0</v>
       </c>
+      <c r="AO350" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -53118,6 +55920,14 @@
       <c r="AN351" t="n">
         <v>0</v>
       </c>
+      <c r="AO351" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -53266,6 +56076,14 @@
       <c r="AN352" t="n">
         <v>0</v>
       </c>
+      <c r="AO352" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -53412,6 +56230,14 @@
       <c r="AN353" t="n">
         <v>0</v>
       </c>
+      <c r="AO353" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -53566,6 +56392,14 @@
       <c r="AN354" t="n">
         <v>0</v>
       </c>
+      <c r="AO354" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -53712,6 +56546,14 @@
       <c r="AN355" t="n">
         <v>0</v>
       </c>
+      <c r="AO355" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -53858,6 +56700,14 @@
       <c r="AN356" t="n">
         <v>0</v>
       </c>
+      <c r="AO356" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -54014,6 +56864,14 @@
       <c r="AN357" t="n">
         <v>0</v>
       </c>
+      <c r="AO357" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -54160,6 +57018,14 @@
       <c r="AN358" t="n">
         <v>0</v>
       </c>
+      <c r="AO358" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -54310,6 +57176,14 @@
       <c r="AN359" t="n">
         <v>0</v>
       </c>
+      <c r="AO359" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -54460,6 +57334,14 @@
       <c r="AN360" t="n">
         <v>0</v>
       </c>
+      <c r="AO360" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -54616,6 +57498,14 @@
       <c r="AN361" t="n">
         <v>0</v>
       </c>
+      <c r="AO361" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -54762,6 +57652,14 @@
       <c r="AN362" t="n">
         <v>0</v>
       </c>
+      <c r="AO362" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -54908,6 +57806,14 @@
       <c r="AN363" t="n">
         <v>0</v>
       </c>
+      <c r="AO363" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -55062,6 +57968,14 @@
       <c r="AN364" t="n">
         <v>0</v>
       </c>
+      <c r="AO364" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -55216,6 +58130,14 @@
       <c r="AN365" t="n">
         <v>0</v>
       </c>
+      <c r="AO365" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -55370,6 +58292,14 @@
       <c r="AN366" t="n">
         <v>0</v>
       </c>
+      <c r="AO366" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -55522,6 +58452,14 @@
       <c r="AN367" t="n">
         <v>0</v>
       </c>
+      <c r="AO367" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -55668,6 +58606,14 @@
       <c r="AN368" t="n">
         <v>0</v>
       </c>
+      <c r="AO368" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -55824,6 +58770,14 @@
       <c r="AN369" t="n">
         <v>0</v>
       </c>
+      <c r="AO369" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -55978,6 +58932,14 @@
       <c r="AN370" t="n">
         <v>0</v>
       </c>
+      <c r="AO370" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -56128,6 +59090,14 @@
       <c r="AN371" t="n">
         <v>0</v>
       </c>
+      <c r="AO371" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -56274,6 +59244,14 @@
       <c r="AN372" t="n">
         <v>0</v>
       </c>
+      <c r="AO372" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -56420,6 +59398,14 @@
       <c r="AN373" t="n">
         <v>0</v>
       </c>
+      <c r="AO373" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -56566,6 +59552,14 @@
       <c r="AN374" t="n">
         <v>0</v>
       </c>
+      <c r="AO374" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -56718,6 +59712,14 @@
       <c r="AN375" t="n">
         <v>0</v>
       </c>
+      <c r="AO375" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -56870,6 +59872,14 @@
       <c r="AN376" t="n">
         <v>0</v>
       </c>
+      <c r="AO376" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -57020,6 +60030,14 @@
       <c r="AN377" t="n">
         <v>0</v>
       </c>
+      <c r="AO377" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -57166,6 +60184,14 @@
       <c r="AN378" t="n">
         <v>0</v>
       </c>
+      <c r="AO378" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -57320,6 +60346,14 @@
       <c r="AN379" t="n">
         <v>0</v>
       </c>
+      <c r="AO379" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -57474,6 +60508,14 @@
       <c r="AN380" t="n">
         <v>0</v>
       </c>
+      <c r="AO380" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -57628,6 +60670,14 @@
       <c r="AN381" t="n">
         <v>0</v>
       </c>
+      <c r="AO381" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -57778,6 +60828,14 @@
       <c r="AN382" t="n">
         <v>0</v>
       </c>
+      <c r="AO382" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -57934,6 +60992,14 @@
       <c r="AN383" t="n">
         <v>0</v>
       </c>
+      <c r="AO383" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -58088,6 +61154,14 @@
       <c r="AN384" t="n">
         <v>0</v>
       </c>
+      <c r="AO384" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -58234,6 +61308,14 @@
       <c r="AN385" t="n">
         <v>0</v>
       </c>
+      <c r="AO385" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -58390,6 +61472,14 @@
       <c r="AN386" t="n">
         <v>0</v>
       </c>
+      <c r="AO386" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -58540,6 +61630,14 @@
       <c r="AN387" t="n">
         <v>0</v>
       </c>
+      <c r="AO387" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -58690,6 +61788,14 @@
       <c r="AN388" t="n">
         <v>0</v>
       </c>
+      <c r="AO388" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -58846,6 +61952,14 @@
       <c r="AN389" t="n">
         <v>0</v>
       </c>
+      <c r="AO389" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -58998,6 +62112,14 @@
       <c r="AN390" t="n">
         <v>0</v>
       </c>
+      <c r="AO390" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -59144,6 +62266,14 @@
       <c r="AN391" t="n">
         <v>0</v>
       </c>
+      <c r="AO391" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -59300,6 +62430,14 @@
       <c r="AN392" t="n">
         <v>0</v>
       </c>
+      <c r="AO392" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -59446,6 +62584,14 @@
       <c r="AN393" t="n">
         <v>0</v>
       </c>
+      <c r="AO393" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -59592,6 +62738,14 @@
       <c r="AN394" t="n">
         <v>0</v>
       </c>
+      <c r="AO394" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -59746,6 +62900,14 @@
       <c r="AN395" t="n">
         <v>0</v>
       </c>
+      <c r="AO395" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -59902,6 +63064,14 @@
       <c r="AN396" t="n">
         <v>0</v>
       </c>
+      <c r="AO396" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -60058,6 +63228,14 @@
       <c r="AN397" t="n">
         <v>0</v>
       </c>
+      <c r="AO397" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -60212,6 +63390,14 @@
       <c r="AN398" t="n">
         <v>0</v>
       </c>
+      <c r="AO398" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -60358,6 +63544,14 @@
       <c r="AN399" t="n">
         <v>0</v>
       </c>
+      <c r="AO399" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -60510,6 +63704,14 @@
       <c r="AN400" t="n">
         <v>0</v>
       </c>
+      <c r="AO400" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -60656,6 +63858,14 @@
       <c r="AN401" t="n">
         <v>0</v>
       </c>
+      <c r="AO401" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -60806,6 +64016,14 @@
       <c r="AN402" t="n">
         <v>0</v>
       </c>
+      <c r="AO402" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -60952,6 +64170,14 @@
       <c r="AN403" t="n">
         <v>0</v>
       </c>
+      <c r="AO403" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -61098,6 +64324,14 @@
       <c r="AN404" t="n">
         <v>0</v>
       </c>
+      <c r="AO404" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -61248,6 +64482,14 @@
       <c r="AN405" t="n">
         <v>0</v>
       </c>
+      <c r="AO405" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -61398,6 +64640,14 @@
       <c r="AN406" t="n">
         <v>0</v>
       </c>
+      <c r="AO406" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -61548,6 +64798,14 @@
       <c r="AN407" t="n">
         <v>0</v>
       </c>
+      <c r="AO407" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -61694,6 +64952,14 @@
       <c r="AN408" t="n">
         <v>0</v>
       </c>
+      <c r="AO408" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -61840,6 +65106,14 @@
       <c r="AN409" t="n">
         <v>0</v>
       </c>
+      <c r="AO409" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -61996,6 +65270,14 @@
       <c r="AN410" t="n">
         <v>0</v>
       </c>
+      <c r="AO410" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -62138,6 +65420,14 @@
       </c>
       <c r="AM411" t="inlineStr"/>
       <c r="AN411" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO411" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62282,6 +65572,14 @@
       <c r="AN412" t="n">
         <v>0</v>
       </c>
+      <c r="AO412" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -62426,6 +65724,14 @@
       </c>
       <c r="AM413" t="inlineStr"/>
       <c r="AN413" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO413" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP413" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62568,6 +65874,14 @@
       <c r="AN414" t="n">
         <v>0</v>
       </c>
+      <c r="AO414" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -62712,6 +66026,14 @@
       <c r="AN415" t="n">
         <v>0</v>
       </c>
+      <c r="AO415" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -62860,6 +66182,14 @@
       </c>
       <c r="AM416" t="inlineStr"/>
       <c r="AN416" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO416" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP416" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63004,6 +66334,14 @@
       <c r="AN417" t="n">
         <v>0</v>
       </c>
+      <c r="AO417" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -63148,6 +66486,14 @@
       <c r="AN418" t="n">
         <v>0</v>
       </c>
+      <c r="AO418" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -63298,6 +66644,14 @@
       <c r="AN419" t="n">
         <v>0</v>
       </c>
+      <c r="AO419" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -63442,6 +66796,14 @@
       <c r="AN420" t="n">
         <v>0</v>
       </c>
+      <c r="AO420" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -63594,6 +66956,14 @@
       </c>
       <c r="AM421" t="inlineStr"/>
       <c r="AN421" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO421" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP421" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63738,6 +67108,14 @@
       <c r="AN422" t="n">
         <v>0</v>
       </c>
+      <c r="AO422" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -63882,6 +67260,14 @@
       </c>
       <c r="AM423" t="inlineStr"/>
       <c r="AN423" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO423" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64032,6 +67418,14 @@
       <c r="AN424" t="n">
         <v>0</v>
       </c>
+      <c r="AO424" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -64174,6 +67568,14 @@
       </c>
       <c r="AM425" t="inlineStr"/>
       <c r="AN425" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO425" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP425" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64318,6 +67720,14 @@
       <c r="AN426" t="n">
         <v>0</v>
       </c>
+      <c r="AO426" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -64460,6 +67870,14 @@
       <c r="AN427" t="n">
         <v>0</v>
       </c>
+      <c r="AO427" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -64610,6 +68028,14 @@
       <c r="AN428" t="n">
         <v>0</v>
       </c>
+      <c r="AO428" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -64756,6 +68182,14 @@
       <c r="AN429" t="n">
         <v>0</v>
       </c>
+      <c r="AO429" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -64906,6 +68340,14 @@
       <c r="AN430" t="n">
         <v>0</v>
       </c>
+      <c r="AO430" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -65050,6 +68492,14 @@
       <c r="AN431" t="n">
         <v>0</v>
       </c>
+      <c r="AO431" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -65192,6 +68642,14 @@
       </c>
       <c r="AM432" t="inlineStr"/>
       <c r="AN432" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO432" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP432" t="n">
         <v>0</v>
       </c>
     </row>
@@ -65342,6 +68800,14 @@
       <c r="AN433" t="n">
         <v>0</v>
       </c>
+      <c r="AO433" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -65488,6 +68954,14 @@
       <c r="AN434" t="n">
         <v>0</v>
       </c>
+      <c r="AO434" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -65634,6 +69108,14 @@
       <c r="AN435" t="n">
         <v>0</v>
       </c>
+      <c r="AO435" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -65780,6 +69262,14 @@
       <c r="AN436" t="n">
         <v>0</v>
       </c>
+      <c r="AO436" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -65930,6 +69420,14 @@
       <c r="AN437" t="n">
         <v>0</v>
       </c>
+      <c r="AO437" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -66076,6 +69574,14 @@
       <c r="AN438" t="n">
         <v>0</v>
       </c>
+      <c r="AO438" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -66222,6 +69728,14 @@
       <c r="AN439" t="n">
         <v>0</v>
       </c>
+      <c r="AO439" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -66368,6 +69882,14 @@
       <c r="AN440" t="n">
         <v>0</v>
       </c>
+      <c r="AO440" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -66514,6 +70036,14 @@
       <c r="AN441" t="n">
         <v>0</v>
       </c>
+      <c r="AO441" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -66664,6 +70194,14 @@
       </c>
       <c r="AM442" t="inlineStr"/>
       <c r="AN442" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO442" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66806,6 +70344,14 @@
       </c>
       <c r="AM443" t="inlineStr"/>
       <c r="AN443" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO443" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP443" t="n">
         <v>0</v>
       </c>
     </row>
@@ -66940,6 +70486,14 @@
       <c r="AN444" t="n">
         <v>0</v>
       </c>
+      <c r="AO444" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -67072,6 +70626,14 @@
       <c r="AN445" t="n">
         <v>0</v>
       </c>
+      <c r="AO445" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -67204,6 +70766,14 @@
       <c r="AN446" t="n">
         <v>0</v>
       </c>
+      <c r="AO446" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -67336,6 +70906,14 @@
       <c r="AN447" t="n">
         <v>0</v>
       </c>
+      <c r="AO447" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -67468,6 +71046,14 @@
       <c r="AN448" t="n">
         <v>0</v>
       </c>
+      <c r="AO448" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -67610,6 +71196,14 @@
       </c>
       <c r="AM449" t="inlineStr"/>
       <c r="AN449" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO449" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67744,6 +71338,14 @@
       <c r="AN450" t="n">
         <v>0</v>
       </c>
+      <c r="AO450" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -67876,6 +71478,14 @@
       <c r="AN451" t="n">
         <v>0</v>
       </c>
+      <c r="AO451" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -68012,6 +71622,14 @@
       <c r="AN452" t="n">
         <v>0</v>
       </c>
+      <c r="AO452" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -68154,6 +71772,14 @@
       </c>
       <c r="AM453" t="inlineStr"/>
       <c r="AN453" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO453" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP453" t="n">
         <v>0</v>
       </c>
     </row>
@@ -68292,6 +71918,14 @@
       <c r="AN454" t="n">
         <v>0</v>
       </c>
+      <c r="AO454" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -68428,6 +72062,14 @@
       <c r="AN455" t="n">
         <v>0</v>
       </c>
+      <c r="AO455" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -68564,6 +72206,14 @@
       <c r="AN456" t="n">
         <v>0</v>
       </c>
+      <c r="AO456" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -68700,6 +72350,14 @@
       <c r="AN457" t="n">
         <v>0</v>
       </c>
+      <c r="AO457" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -68836,6 +72494,14 @@
       <c r="AN458" t="n">
         <v>0</v>
       </c>
+      <c r="AO458" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -68972,6 +72638,14 @@
       <c r="AN459" t="n">
         <v>0</v>
       </c>
+      <c r="AO459" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -69108,6 +72782,14 @@
       <c r="AN460" t="n">
         <v>0</v>
       </c>
+      <c r="AO460" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -69244,6 +72926,14 @@
       <c r="AN461" t="n">
         <v>0</v>
       </c>
+      <c r="AO461" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -69380,6 +73070,14 @@
       <c r="AN462" t="n">
         <v>0</v>
       </c>
+      <c r="AO462" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -69516,6 +73214,14 @@
       <c r="AN463" t="n">
         <v>0</v>
       </c>
+      <c r="AO463" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -69652,6 +73358,14 @@
       <c r="AN464" t="n">
         <v>0</v>
       </c>
+      <c r="AO464" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -69788,6 +73502,14 @@
       <c r="AN465" t="n">
         <v>0</v>
       </c>
+      <c r="AO465" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AP465" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output_files/output_QIP_incentive_august_2025_최종완성버전_v6.0_Complete.xlsx
+++ b/output_files/output_QIP_incentive_august_2025_최종완성버전_v6.0_Complete.xlsx
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="M3" t="n">
         <v>618030024</v>
@@ -897,7 +897,7 @@
         <v>618030024</v>
       </c>
       <c r="W3" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>383301</v>
+        <v>299053</v>
       </c>
       <c r="M4" t="n">
         <v>618030049</v>
@@ -1051,7 +1051,7 @@
         <v>618030049</v>
       </c>
       <c r="W4" t="n">
-        <v>383301</v>
+        <v>299053</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M5" t="n">
         <v>618030189</v>
@@ -1209,7 +1209,7 @@
         <v>618030189</v>
       </c>
       <c r="W5" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="M6" t="n">
         <v>618030241</v>
@@ -1363,7 +1363,7 @@
         <v>618030241</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="M8" t="n">
         <v>618060092</v>
@@ -1671,7 +1671,7 @@
         <v>618060092</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="M9" t="n">
         <v>618100175</v>
@@ -1829,7 +1829,7 @@
         <v>618100175</v>
       </c>
       <c r="W9" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="M12" t="n">
         <v>618110087</v>
@@ -2291,7 +2291,7 @@
         <v>618110087</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="M13" t="n">
         <v>618110097</v>
@@ -2445,7 +2445,7 @@
         <v>618110097</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M14" t="n">
         <v>619020144</v>
@@ -2599,7 +2599,7 @@
         <v>619020144</v>
       </c>
       <c r="W14" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M16" t="n">
         <v>619020209</v>
@@ -2907,7 +2907,7 @@
         <v>619020209</v>
       </c>
       <c r="W16" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M17" t="n">
         <v>619020320</v>
@@ -3061,7 +3061,7 @@
         <v>619020320</v>
       </c>
       <c r="W17" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="M18" t="n">
         <v>619020343</v>
@@ -3215,7 +3215,7 @@
         <v>619020343</v>
       </c>
       <c r="W18" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>88941</v>
+        <v>70823</v>
       </c>
       <c r="M19" t="n">
         <v>619020468</v>
@@ -3369,7 +3369,7 @@
         <v>619020468</v>
       </c>
       <c r="W19" t="n">
-        <v>88941</v>
+        <v>70823</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -3403,9 +3403,15 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
+      <c r="AF19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>100</v>
+      </c>
       <c r="AI19" t="inlineStr">
         <is>
           <t>no</t>
@@ -3413,7 +3419,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AK19" t="n">
@@ -3492,7 +3498,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M20" t="n">
         <v>619030228</v>
@@ -3523,7 +3529,7 @@
         <v>619030228</v>
       </c>
       <c r="W20" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
@@ -3962,7 +3968,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="M23" t="n">
         <v>619050074</v>
@@ -3993,7 +3999,7 @@
         <v>619050074</v>
       </c>
       <c r="W23" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -4274,7 +4280,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M25" t="n">
         <v>619050431</v>
@@ -4305,7 +4311,7 @@
         <v>619050431</v>
       </c>
       <c r="W25" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
@@ -4494,13 +4500,13 @@
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>360</v>
+        <v>740</v>
       </c>
       <c r="AG26" t="n">
-        <v>352</v>
+        <v>726</v>
       </c>
       <c r="AH26" t="n">
-        <v>97.78</v>
+        <v>98.11</v>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
@@ -4588,7 +4594,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>449337</v>
+        <v>313455</v>
       </c>
       <c r="M27" t="n">
         <v>619070072</v>
@@ -4623,7 +4629,7 @@
         <v>619070072</v>
       </c>
       <c r="W27" t="n">
-        <v>449337</v>
+        <v>313455</v>
       </c>
       <c r="X27" t="n">
         <v>13</v>
@@ -5062,7 +5068,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="M30" t="n">
         <v>619070185</v>
@@ -5093,7 +5099,7 @@
         <v>619070185</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -5378,7 +5384,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M32" t="n">
         <v>619080060</v>
@@ -5413,7 +5419,7 @@
         <v>619080060</v>
       </c>
       <c r="W32" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -5536,7 +5542,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="M33" t="n">
         <v>619080083</v>
@@ -5567,7 +5573,7 @@
         <v>619080083</v>
       </c>
       <c r="W33" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="X33" t="n">
         <v>13</v>
@@ -5844,7 +5850,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M35" t="n">
         <v>619080448</v>
@@ -5875,7 +5881,7 @@
         <v>619080448</v>
       </c>
       <c r="W35" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -6314,7 +6320,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M38" t="n">
         <v>619100381</v>
@@ -6349,7 +6355,7 @@
         <v>619100381</v>
       </c>
       <c r="W38" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
@@ -6788,7 +6794,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M41" t="n">
         <v>620020520</v>
@@ -6819,7 +6825,7 @@
         <v>620020520</v>
       </c>
       <c r="W41" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X41" t="n">
         <v>13</v>
@@ -6942,7 +6948,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M42" t="n">
         <v>620020555</v>
@@ -6973,7 +6979,7 @@
         <v>620020555</v>
       </c>
       <c r="W42" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X42" t="n">
         <v>13</v>
@@ -7258,7 +7264,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>335845</v>
+        <v>245256</v>
       </c>
       <c r="M44" t="n">
         <v>620020691</v>
@@ -7289,7 +7295,7 @@
         <v>620020691</v>
       </c>
       <c r="W44" t="n">
-        <v>335845</v>
+        <v>245256</v>
       </c>
       <c r="X44" t="n">
         <v>13</v>
@@ -7412,7 +7418,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="M45" t="n">
         <v>620020705</v>
@@ -7443,7 +7449,7 @@
         <v>620020705</v>
       </c>
       <c r="W45" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
@@ -7786,13 +7792,13 @@
         </is>
       </c>
       <c r="AF47" t="n">
-        <v>550</v>
+        <v>990</v>
       </c>
       <c r="AG47" t="n">
-        <v>527</v>
+        <v>944</v>
       </c>
       <c r="AH47" t="n">
-        <v>95.81999999999999</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
@@ -7884,7 +7890,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M48" t="n">
         <v>620030052</v>
@@ -7915,7 +7921,7 @@
         <v>620030052</v>
       </c>
       <c r="W48" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
@@ -8038,7 +8044,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="M49" t="n">
         <v>620030340</v>
@@ -8069,7 +8075,7 @@
         <v>620030340</v>
       </c>
       <c r="W49" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="X49" t="n">
         <v>13</v>
@@ -8258,13 +8264,13 @@
         </is>
       </c>
       <c r="AF50" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="n">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="AH50" t="n">
-        <v>99.09</v>
+        <v>98.89</v>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
@@ -8352,7 +8358,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="M51" t="n">
         <v>620060085</v>
@@ -8387,7 +8393,7 @@
         <v>620060085</v>
       </c>
       <c r="W51" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="X51" t="n">
         <v>13</v>
@@ -8510,7 +8516,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="M52" t="n">
         <v>620060128</v>
@@ -8541,7 +8547,7 @@
         <v>620060128</v>
       </c>
       <c r="W52" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="X52" t="n">
         <v>13</v>
@@ -8664,7 +8670,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>447184</v>
+        <v>348896</v>
       </c>
       <c r="M53" t="n">
         <v>620070012</v>
@@ -8693,7 +8699,7 @@
         <v>620070012</v>
       </c>
       <c r="W53" t="n">
-        <v>447184</v>
+        <v>348896</v>
       </c>
       <c r="X53" t="n">
         <v>13</v>
@@ -8970,7 +8976,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="M55" t="n">
         <v>620070020</v>
@@ -9005,7 +9011,7 @@
         <v>620070020</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
@@ -9128,7 +9134,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="M56" t="n">
         <v>620070050</v>
@@ -9159,7 +9165,7 @@
         <v>620070050</v>
       </c>
       <c r="W56" t="n">
-        <v>357977</v>
+        <v>282487</v>
       </c>
       <c r="X56" t="n">
         <v>13</v>
@@ -9836,13 +9842,13 @@
         </is>
       </c>
       <c r="AF60" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="AG60" t="n">
-        <v>432</v>
+        <v>669</v>
       </c>
       <c r="AH60" t="n">
-        <v>98.18000000000001</v>
+        <v>98.38</v>
       </c>
       <c r="AI60" t="inlineStr">
         <is>
@@ -9930,7 +9936,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M61" t="n">
         <v>620090070</v>
@@ -9961,7 +9967,7 @@
         <v>620090070</v>
       </c>
       <c r="W61" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X61" t="n">
         <v>13</v>
@@ -10238,7 +10244,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="M63" t="n">
         <v>620090168</v>
@@ -10273,7 +10279,7 @@
         <v>620090168</v>
       </c>
       <c r="W63" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="X63" t="n">
         <v>13</v>
@@ -10396,7 +10402,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="M64" t="n">
         <v>620090241</v>
@@ -10427,7 +10433,7 @@
         <v>620090241</v>
       </c>
       <c r="W64" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="X64" t="n">
         <v>13</v>
@@ -10712,7 +10718,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="M66" t="n">
         <v>620110075</v>
@@ -10747,7 +10753,7 @@
         <v>620110075</v>
       </c>
       <c r="W66" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="X66" t="n">
         <v>13</v>
@@ -11194,7 +11200,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M69" t="n">
         <v>620110399</v>
@@ -11229,7 +11235,7 @@
         <v>620110399</v>
       </c>
       <c r="W69" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X69" t="n">
         <v>13</v>
@@ -11358,7 +11364,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>179735</v>
+        <v>125382</v>
       </c>
       <c r="M70" t="n">
         <v>620110408</v>
@@ -11389,7 +11395,7 @@
         <v>620110408</v>
       </c>
       <c r="W70" t="n">
-        <v>179735</v>
+        <v>125382</v>
       </c>
       <c r="X70" t="n">
         <v>13</v>
@@ -11512,7 +11518,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>383301</v>
+        <v>299053</v>
       </c>
       <c r="M71" t="n">
         <v>620110439</v>
@@ -11543,7 +11549,7 @@
         <v>620110439</v>
       </c>
       <c r="W71" t="n">
-        <v>383301</v>
+        <v>299053</v>
       </c>
       <c r="X71" t="n">
         <v>13</v>
@@ -12056,13 +12062,13 @@
         </is>
       </c>
       <c r="AF74" t="n">
-        <v>420</v>
+        <v>770</v>
       </c>
       <c r="AG74" t="n">
-        <v>412</v>
+        <v>751</v>
       </c>
       <c r="AH74" t="n">
-        <v>98.09999999999999</v>
+        <v>97.53</v>
       </c>
       <c r="AI74" t="inlineStr">
         <is>
@@ -12308,7 +12314,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="M76" t="n">
         <v>620120386</v>
@@ -12339,7 +12345,7 @@
         <v>620120386</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="X76" t="n">
         <v>13</v>
@@ -12462,7 +12468,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M77" t="n">
         <v>621020118</v>
@@ -12497,7 +12503,7 @@
         <v>621020118</v>
       </c>
       <c r="W77" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X77" t="n">
         <v>13</v>
@@ -12620,7 +12626,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M78" t="n">
         <v>621020156</v>
@@ -12651,7 +12657,7 @@
         <v>621020156</v>
       </c>
       <c r="W78" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X78" t="n">
         <v>13</v>
@@ -12774,7 +12780,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M79" t="n">
         <v>621020289</v>
@@ -12805,7 +12811,7 @@
         <v>621020289</v>
       </c>
       <c r="W79" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X79" t="n">
         <v>13</v>
@@ -12928,7 +12934,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M80" t="n">
         <v>621020323</v>
@@ -12959,7 +12965,7 @@
         <v>621020323</v>
       </c>
       <c r="W80" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X80" t="n">
         <v>13</v>
@@ -13082,7 +13088,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M81" t="n">
         <v>621020329</v>
@@ -13113,7 +13119,7 @@
         <v>621020329</v>
       </c>
       <c r="W81" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X81" t="n">
         <v>13</v>
@@ -13236,7 +13242,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M82" t="n">
         <v>621020445</v>
@@ -13267,7 +13273,7 @@
         <v>621020445</v>
       </c>
       <c r="W82" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X82" t="n">
         <v>13</v>
@@ -13456,13 +13462,13 @@
         </is>
       </c>
       <c r="AF83" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="AG83" t="n">
-        <v>546</v>
+        <v>820</v>
       </c>
       <c r="AH83" t="n">
-        <v>97.5</v>
+        <v>97.62</v>
       </c>
       <c r="AI83" t="inlineStr">
         <is>
@@ -13554,7 +13560,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M84" t="n">
         <v>621030380</v>
@@ -13589,7 +13595,7 @@
         <v>621030380</v>
       </c>
       <c r="W84" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X84" t="n">
         <v>13</v>
@@ -13712,7 +13718,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M85" t="n">
         <v>621030474</v>
@@ -13743,7 +13749,7 @@
         <v>621030474</v>
       </c>
       <c r="W85" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X85" t="n">
         <v>13</v>
@@ -13866,7 +13872,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M86" t="n">
         <v>621030477</v>
@@ -13901,7 +13907,7 @@
         <v>621030477</v>
       </c>
       <c r="W86" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X86" t="n">
         <v>13</v>
@@ -14024,7 +14030,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="M87" t="n">
         <v>621030556</v>
@@ -14055,7 +14061,7 @@
         <v>621030556</v>
       </c>
       <c r="W87" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="X87" t="n">
         <v>13</v>
@@ -14244,13 +14250,13 @@
         </is>
       </c>
       <c r="AF88" t="n">
-        <v>195</v>
+        <v>355</v>
       </c>
       <c r="AG88" t="n">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="AH88" t="n">
-        <v>98.45999999999999</v>
+        <v>98.59</v>
       </c>
       <c r="AI88" t="inlineStr">
         <is>
@@ -14342,7 +14348,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M89" t="n">
         <v>621030642</v>
@@ -14373,7 +14379,7 @@
         <v>621030642</v>
       </c>
       <c r="W89" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X89" t="n">
         <v>13</v>
@@ -14496,7 +14502,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M90" t="n">
         <v>621030755</v>
@@ -14527,7 +14533,7 @@
         <v>621030755</v>
       </c>
       <c r="W90" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X90" t="n">
         <v>13</v>
@@ -14650,7 +14656,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>169852</v>
+        <v>101911</v>
       </c>
       <c r="M91" t="n">
         <v>621030759</v>
@@ -14681,7 +14687,7 @@
         <v>621030759</v>
       </c>
       <c r="W91" t="n">
-        <v>169852</v>
+        <v>101911</v>
       </c>
       <c r="X91" t="n">
         <v>13</v>
@@ -14870,13 +14876,13 @@
         </is>
       </c>
       <c r="AF92" t="n">
-        <v>480</v>
+        <v>920</v>
       </c>
       <c r="AG92" t="n">
-        <v>466</v>
+        <v>893</v>
       </c>
       <c r="AH92" t="n">
-        <v>97.08</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="AI92" t="inlineStr">
         <is>
@@ -14968,7 +14974,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M93" t="n">
         <v>621031025</v>
@@ -14999,7 +15005,7 @@
         <v>621031025</v>
       </c>
       <c r="W93" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X93" t="n">
         <v>13</v>
@@ -15122,7 +15128,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M94" t="n">
         <v>621031108</v>
@@ -15157,7 +15163,7 @@
         <v>621031108</v>
       </c>
       <c r="W94" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X94" t="n">
         <v>13</v>
@@ -15280,7 +15286,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M95" t="n">
         <v>621040440</v>
@@ -15311,7 +15317,7 @@
         <v>621040440</v>
       </c>
       <c r="W95" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X95" t="n">
         <v>13</v>
@@ -15500,13 +15506,13 @@
         </is>
       </c>
       <c r="AF96" t="n">
-        <v>450</v>
+        <v>930</v>
       </c>
       <c r="AG96" t="n">
-        <v>430</v>
+        <v>886</v>
       </c>
       <c r="AH96" t="n">
-        <v>95.56</v>
+        <v>95.27</v>
       </c>
       <c r="AI96" t="inlineStr">
         <is>
@@ -15598,7 +15604,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M97" t="n">
         <v>621040472</v>
@@ -15629,7 +15635,7 @@
         <v>621040472</v>
       </c>
       <c r="W97" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X97" t="n">
         <v>13</v>
@@ -15752,7 +15758,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="M98" t="n">
         <v>621050241</v>
@@ -15787,7 +15793,7 @@
         <v>621050241</v>
       </c>
       <c r="W98" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="X98" t="n">
         <v>13</v>
@@ -16072,7 +16078,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M100" t="n">
         <v>621050490</v>
@@ -16103,7 +16109,7 @@
         <v>621050490</v>
       </c>
       <c r="W100" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X100" t="n">
         <v>13</v>
@@ -16388,7 +16394,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>621060243</v>
@@ -16419,7 +16425,7 @@
         <v>621060243</v>
       </c>
       <c r="W102" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="X102" t="n">
         <v>13</v>
@@ -16454,13 +16460,13 @@
         </is>
       </c>
       <c r="AF102" t="n">
-        <v>560</v>
+        <v>1040</v>
       </c>
       <c r="AG102" t="n">
-        <v>545</v>
+        <v>1015</v>
       </c>
       <c r="AH102" t="n">
-        <v>97.31999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AI102" t="inlineStr">
         <is>
@@ -16473,7 +16479,7 @@
         </is>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" t="inlineStr">
         <is>
@@ -16552,7 +16558,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M103" t="n">
         <v>621060393</v>
@@ -16587,7 +16593,7 @@
         <v>621060393</v>
       </c>
       <c r="W103" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X103" t="n">
         <v>13</v>
@@ -16938,13 +16944,13 @@
         </is>
       </c>
       <c r="AF105" t="n">
-        <v>490</v>
+        <v>930</v>
       </c>
       <c r="AG105" t="n">
-        <v>445</v>
+        <v>854</v>
       </c>
       <c r="AH105" t="n">
-        <v>90.81999999999999</v>
+        <v>91.83</v>
       </c>
       <c r="AI105" t="inlineStr">
         <is>
@@ -17036,7 +17042,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M106" t="n">
         <v>621100149</v>
@@ -17067,7 +17073,7 @@
         <v>621100149</v>
       </c>
       <c r="W106" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X106" t="n">
         <v>13</v>
@@ -17256,13 +17262,13 @@
         </is>
       </c>
       <c r="AF107" t="n">
-        <v>280</v>
+        <v>640</v>
       </c>
       <c r="AG107" t="n">
-        <v>274</v>
+        <v>627</v>
       </c>
       <c r="AH107" t="n">
-        <v>97.86</v>
+        <v>97.97</v>
       </c>
       <c r="AI107" t="inlineStr">
         <is>
@@ -17420,17 +17426,17 @@
         </is>
       </c>
       <c r="AF108" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AG108" t="n">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AH108" t="n">
-        <v>97.78</v>
+        <v>98.33</v>
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -17514,7 +17520,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M109" t="n">
         <v>621110050</v>
@@ -17545,7 +17551,7 @@
         <v>621110050</v>
       </c>
       <c r="W109" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X109" t="n">
         <v>13</v>
@@ -17668,7 +17674,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M110" t="n">
         <v>621110051</v>
@@ -17699,7 +17705,7 @@
         <v>621110051</v>
       </c>
       <c r="W110" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X110" t="n">
         <v>13</v>
@@ -17822,7 +17828,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="M111" t="n">
         <v>621110093</v>
@@ -17853,7 +17859,7 @@
         <v>621110093</v>
       </c>
       <c r="W111" t="n">
-        <v>254659</v>
+        <v>186718</v>
       </c>
       <c r="X111" t="n">
         <v>13</v>
@@ -17976,7 +17982,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M112" t="n">
         <v>621110165</v>
@@ -18007,7 +18013,7 @@
         <v>621110165</v>
       </c>
       <c r="W112" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X112" t="n">
         <v>13</v>
@@ -18196,13 +18202,13 @@
         </is>
       </c>
       <c r="AF113" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="AG113" t="n">
-        <v>254</v>
+        <v>431</v>
       </c>
       <c r="AH113" t="n">
-        <v>97.69</v>
+        <v>97.95</v>
       </c>
       <c r="AI113" t="inlineStr">
         <is>
@@ -18294,7 +18300,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M114" t="n">
         <v>621110318</v>
@@ -18325,7 +18331,7 @@
         <v>621110318</v>
       </c>
       <c r="W114" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X114" t="n">
         <v>13</v>
@@ -18668,13 +18674,13 @@
         </is>
       </c>
       <c r="AF116" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AG116" t="n">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="AH116" t="n">
-        <v>98</v>
+        <v>98.33</v>
       </c>
       <c r="AI116" t="inlineStr">
         <is>
@@ -18828,13 +18834,13 @@
         </is>
       </c>
       <c r="AF117" t="n">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="AG117" t="n">
-        <v>356</v>
+        <v>655</v>
       </c>
       <c r="AH117" t="n">
-        <v>98.89</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
@@ -18926,7 +18932,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M118" t="n">
         <v>621110751</v>
@@ -18961,7 +18967,7 @@
         <v>621110751</v>
       </c>
       <c r="W118" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X118" t="n">
         <v>13</v>
@@ -19084,7 +19090,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M119" t="n">
         <v>621110916</v>
@@ -19119,7 +19125,7 @@
         <v>621110916</v>
       </c>
       <c r="W119" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X119" t="n">
         <v>13</v>
@@ -19312,13 +19318,13 @@
         </is>
       </c>
       <c r="AF120" t="n">
-        <v>420</v>
+        <v>660</v>
       </c>
       <c r="AG120" t="n">
-        <v>412</v>
+        <v>650</v>
       </c>
       <c r="AH120" t="n">
-        <v>98.09999999999999</v>
+        <v>98.48</v>
       </c>
       <c r="AI120" t="inlineStr">
         <is>
@@ -19406,7 +19412,7 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M121" t="n">
         <v>621120205</v>
@@ -19437,7 +19443,7 @@
         <v>621120205</v>
       </c>
       <c r="W121" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X121" t="n">
         <v>13</v>
@@ -19630,13 +19636,13 @@
         </is>
       </c>
       <c r="AF122" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AG122" t="n">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="AH122" t="n">
-        <v>97.59</v>
+        <v>97.27</v>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
@@ -19649,7 +19655,7 @@
         </is>
       </c>
       <c r="AK122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL122" t="inlineStr">
         <is>
@@ -19728,7 +19734,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M123" t="n">
         <v>621120401</v>
@@ -19763,7 +19769,7 @@
         <v>621120401</v>
       </c>
       <c r="W123" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X123" t="n">
         <v>13</v>
@@ -19886,7 +19892,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M124" t="n">
         <v>621120402</v>
@@ -19917,7 +19923,7 @@
         <v>621120402</v>
       </c>
       <c r="W124" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X124" t="n">
         <v>13</v>
@@ -20106,13 +20112,13 @@
         </is>
       </c>
       <c r="AF125" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="AG125" t="n">
-        <v>351</v>
+        <v>783</v>
       </c>
       <c r="AH125" t="n">
-        <v>97.5</v>
+        <v>97.88</v>
       </c>
       <c r="AI125" t="inlineStr">
         <is>
@@ -20204,7 +20210,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M126" t="n">
         <v>622020079</v>
@@ -20235,7 +20241,7 @@
         <v>622020079</v>
       </c>
       <c r="W126" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X126" t="n">
         <v>13</v>
@@ -20520,7 +20526,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M128" t="n">
         <v>622020340</v>
@@ -20551,7 +20557,7 @@
         <v>622020340</v>
       </c>
       <c r="W128" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X128" t="n">
         <v>13</v>
@@ -20674,7 +20680,7 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M129" t="n">
         <v>622020578</v>
@@ -20705,7 +20711,7 @@
         <v>622020578</v>
       </c>
       <c r="W129" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X129" t="n">
         <v>13</v>
@@ -20828,7 +20834,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M130" t="n">
         <v>622020633</v>
@@ -20859,7 +20865,7 @@
         <v>622020633</v>
       </c>
       <c r="W130" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X130" t="n">
         <v>13</v>
@@ -20982,7 +20988,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M131" t="n">
         <v>622020636</v>
@@ -21013,7 +21019,7 @@
         <v>622020636</v>
       </c>
       <c r="W131" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X131" t="n">
         <v>13</v>
@@ -21202,13 +21208,13 @@
         </is>
       </c>
       <c r="AF132" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="AG132" t="n">
-        <v>546</v>
+        <v>777</v>
       </c>
       <c r="AH132" t="n">
-        <v>97.5</v>
+        <v>97.12</v>
       </c>
       <c r="AI132" t="inlineStr">
         <is>
@@ -21528,10 +21534,10 @@
         </is>
       </c>
       <c r="AF134" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AG134" t="n">
-        <v>507</v>
+        <v>975</v>
       </c>
       <c r="AH134" t="n">
         <v>97.5</v>
@@ -21622,7 +21628,7 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M135" t="n">
         <v>622020914</v>
@@ -21653,7 +21659,7 @@
         <v>622020914</v>
       </c>
       <c r="W135" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X135" t="n">
         <v>13</v>
@@ -21842,13 +21848,13 @@
         </is>
       </c>
       <c r="AF136" t="n">
-        <v>380</v>
+        <v>680</v>
       </c>
       <c r="AG136" t="n">
-        <v>371</v>
+        <v>665</v>
       </c>
       <c r="AH136" t="n">
-        <v>97.63</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="AI136" t="inlineStr">
         <is>
@@ -22002,13 +22008,13 @@
         </is>
       </c>
       <c r="AF137" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="AG137" t="n">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="AH137" t="n">
-        <v>97.78</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="AI137" t="inlineStr">
         <is>
@@ -22162,13 +22168,13 @@
         </is>
       </c>
       <c r="AF138" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="AG138" t="n">
-        <v>275</v>
+        <v>487</v>
       </c>
       <c r="AH138" t="n">
-        <v>98.20999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AI138" t="inlineStr">
         <is>
@@ -22326,13 +22332,13 @@
         </is>
       </c>
       <c r="AF139" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG139" t="n">
-        <v>275</v>
+        <v>511</v>
       </c>
       <c r="AH139" t="n">
-        <v>98.20999999999999</v>
+        <v>98.27</v>
       </c>
       <c r="AI139" t="inlineStr">
         <is>
@@ -22424,7 +22430,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M140" t="n">
         <v>622021557</v>
@@ -22459,7 +22465,7 @@
         <v>622021557</v>
       </c>
       <c r="W140" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X140" t="n">
         <v>13</v>
@@ -22582,7 +22588,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M141" t="n">
         <v>622021632</v>
@@ -22613,7 +22619,7 @@
         <v>622021632</v>
       </c>
       <c r="W141" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X141" t="n">
         <v>13</v>
@@ -22736,7 +22742,7 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M142" t="n">
         <v>622021707</v>
@@ -22767,7 +22773,7 @@
         <v>622021707</v>
       </c>
       <c r="W142" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X142" t="n">
         <v>13</v>
@@ -22890,7 +22896,7 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M143" t="n">
         <v>622021749</v>
@@ -22921,7 +22927,7 @@
         <v>622021749</v>
       </c>
       <c r="W143" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X143" t="n">
         <v>13</v>
@@ -23272,13 +23278,13 @@
         </is>
       </c>
       <c r="AF145" t="n">
-        <v>440</v>
+        <v>740</v>
       </c>
       <c r="AG145" t="n">
-        <v>432</v>
+        <v>725</v>
       </c>
       <c r="AH145" t="n">
-        <v>98.18000000000001</v>
+        <v>97.97</v>
       </c>
       <c r="AI145" t="inlineStr">
         <is>
@@ -23520,7 +23526,7 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M147" t="n">
         <v>622030226</v>
@@ -23555,7 +23561,7 @@
         <v>622030226</v>
       </c>
       <c r="W147" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X147" t="n">
         <v>13</v>
@@ -23832,7 +23838,7 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M149" t="n">
         <v>622030489</v>
@@ -23863,7 +23869,7 @@
         <v>622030489</v>
       </c>
       <c r="W149" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X149" t="n">
         <v>13</v>
@@ -24148,7 +24154,7 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M151" t="n">
         <v>622030533</v>
@@ -24179,7 +24185,7 @@
         <v>622030533</v>
       </c>
       <c r="W151" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X151" t="n">
         <v>13</v>
@@ -24372,13 +24378,13 @@
         </is>
       </c>
       <c r="AF152" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="AG152" t="n">
-        <v>383</v>
+        <v>735</v>
       </c>
       <c r="AH152" t="n">
-        <v>98.20999999999999</v>
+        <v>98</v>
       </c>
       <c r="AI152" t="inlineStr">
         <is>
@@ -24624,7 +24630,7 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M154" t="n">
         <v>622050074</v>
@@ -24655,7 +24661,7 @@
         <v>622050074</v>
       </c>
       <c r="W154" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X154" t="n">
         <v>13</v>
@@ -25102,7 +25108,7 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M157" t="n">
         <v>622050244</v>
@@ -25133,7 +25139,7 @@
         <v>622050244</v>
       </c>
       <c r="W157" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X157" t="n">
         <v>13</v>
@@ -25256,7 +25262,7 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M158" t="n">
         <v>622050246</v>
@@ -25287,7 +25293,7 @@
         <v>622050246</v>
       </c>
       <c r="W158" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X158" t="n">
         <v>13</v>
@@ -25410,7 +25416,7 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M159" t="n">
         <v>622050263</v>
@@ -25441,7 +25447,7 @@
         <v>622050263</v>
       </c>
       <c r="W159" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X159" t="n">
         <v>13</v>
@@ -25564,7 +25570,7 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M160" t="n">
         <v>622050265</v>
@@ -25595,7 +25601,7 @@
         <v>622050265</v>
       </c>
       <c r="W160" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X160" t="n">
         <v>13</v>
@@ -25718,7 +25724,7 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="M161" t="n">
         <v>622050461</v>
@@ -25749,7 +25755,7 @@
         <v>622050461</v>
       </c>
       <c r="W161" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="X161" t="n">
         <v>13</v>
@@ -26096,13 +26102,13 @@
         </is>
       </c>
       <c r="AF163" t="n">
-        <v>390</v>
+        <v>730</v>
       </c>
       <c r="AG163" t="n">
-        <v>385</v>
+        <v>724</v>
       </c>
       <c r="AH163" t="n">
-        <v>98.72</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="AI163" t="inlineStr">
         <is>
@@ -26260,13 +26266,13 @@
         </is>
       </c>
       <c r="AF164" t="n">
-        <v>210</v>
+        <v>570</v>
       </c>
       <c r="AG164" t="n">
-        <v>206</v>
+        <v>564</v>
       </c>
       <c r="AH164" t="n">
-        <v>98.09999999999999</v>
+        <v>98.95</v>
       </c>
       <c r="AI164" t="inlineStr">
         <is>
@@ -26354,7 +26360,7 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M165" t="n">
         <v>622060302</v>
@@ -26385,7 +26391,7 @@
         <v>622060302</v>
       </c>
       <c r="W165" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X165" t="n">
         <v>13</v>
@@ -26508,7 +26514,7 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M166" t="n">
         <v>622060307</v>
@@ -26543,7 +26549,7 @@
         <v>622060307</v>
       </c>
       <c r="W166" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X166" t="n">
         <v>13</v>
@@ -26666,7 +26672,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M167" t="n">
         <v>622060369</v>
@@ -26697,7 +26703,7 @@
         <v>622060369</v>
       </c>
       <c r="W167" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X167" t="n">
         <v>13</v>
@@ -26820,7 +26826,7 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M168" t="n">
         <v>622070130</v>
@@ -26851,7 +26857,7 @@
         <v>622070130</v>
       </c>
       <c r="W168" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X168" t="n">
         <v>13</v>
@@ -26974,7 +26980,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M169" t="n">
         <v>622070133</v>
@@ -27005,7 +27011,7 @@
         <v>622070133</v>
       </c>
       <c r="W169" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X169" t="n">
         <v>13</v>
@@ -27194,13 +27200,13 @@
         </is>
       </c>
       <c r="AF170" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="AG170" t="n">
-        <v>333</v>
+        <v>571</v>
       </c>
       <c r="AH170" t="n">
-        <v>97.94</v>
+        <v>98.45</v>
       </c>
       <c r="AI170" t="inlineStr">
         <is>
@@ -27354,13 +27360,13 @@
         </is>
       </c>
       <c r="AF171" t="n">
-        <v>390</v>
+        <v>720</v>
       </c>
       <c r="AG171" t="n">
-        <v>382</v>
+        <v>710</v>
       </c>
       <c r="AH171" t="n">
-        <v>97.95</v>
+        <v>98.61</v>
       </c>
       <c r="AI171" t="inlineStr">
         <is>
@@ -27930,7 +27936,7 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M175" t="n">
         <v>622070609</v>
@@ -27961,7 +27967,7 @@
         <v>622070609</v>
       </c>
       <c r="W175" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X175" t="n">
         <v>13</v>
@@ -28154,13 +28160,13 @@
         </is>
       </c>
       <c r="AF176" t="n">
-        <v>520</v>
+        <v>920</v>
       </c>
       <c r="AG176" t="n">
-        <v>482</v>
+        <v>854</v>
       </c>
       <c r="AH176" t="n">
-        <v>92.69</v>
+        <v>92.83</v>
       </c>
       <c r="AI176" t="inlineStr">
         <is>
@@ -28252,7 +28258,7 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M177" t="n">
         <v>622080448</v>
@@ -28283,7 +28289,7 @@
         <v>622080448</v>
       </c>
       <c r="W177" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X177" t="n">
         <v>13</v>
@@ -28406,7 +28412,7 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M178" t="n">
         <v>622080450</v>
@@ -28437,7 +28443,7 @@
         <v>622080450</v>
       </c>
       <c r="W178" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X178" t="n">
         <v>13</v>
@@ -28560,7 +28566,7 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M179" t="n">
         <v>622080451</v>
@@ -28591,7 +28597,7 @@
         <v>622080451</v>
       </c>
       <c r="W179" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X179" t="n">
         <v>13</v>
@@ -28714,7 +28720,7 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M180" t="n">
         <v>622080452</v>
@@ -28749,7 +28755,7 @@
         <v>622080452</v>
       </c>
       <c r="W180" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X180" t="n">
         <v>13</v>
@@ -29100,13 +29106,13 @@
         </is>
       </c>
       <c r="AF182" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="AG182" t="n">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="AH182" t="n">
-        <v>97.31</v>
+        <v>98.12</v>
       </c>
       <c r="AI182" t="inlineStr">
         <is>
@@ -29356,7 +29362,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
         <v>623030007</v>
@@ -29387,7 +29393,7 @@
         <v>623030007</v>
       </c>
       <c r="W184" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="X184" t="n">
         <v>13</v>
@@ -29422,17 +29428,17 @@
         </is>
       </c>
       <c r="AF184" t="n">
-        <v>390</v>
+        <v>850</v>
       </c>
       <c r="AG184" t="n">
-        <v>385</v>
+        <v>807</v>
       </c>
       <c r="AH184" t="n">
-        <v>98.72</v>
+        <v>94.94</v>
       </c>
       <c r="AI184" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AJ184" t="inlineStr">
@@ -29441,7 +29447,7 @@
         </is>
       </c>
       <c r="AK184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL184" t="inlineStr">
         <is>
@@ -29520,7 +29526,7 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M185" t="n">
         <v>623030244</v>
@@ -29551,7 +29557,7 @@
         <v>623030244</v>
       </c>
       <c r="W185" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X185" t="n">
         <v>13</v>
@@ -29674,7 +29680,7 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M186" t="n">
         <v>623040186</v>
@@ -29705,7 +29711,7 @@
         <v>623040186</v>
       </c>
       <c r="W186" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X186" t="n">
         <v>13</v>
@@ -29828,7 +29834,7 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M187" t="n">
         <v>623040397</v>
@@ -29859,7 +29865,7 @@
         <v>623040397</v>
       </c>
       <c r="W187" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X187" t="n">
         <v>13</v>
@@ -29982,7 +29988,7 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M188" t="n">
         <v>623050010</v>
@@ -30013,7 +30019,7 @@
         <v>623050010</v>
       </c>
       <c r="W188" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X188" t="n">
         <v>13</v>
@@ -30136,7 +30142,7 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M189" t="n">
         <v>623060090</v>
@@ -30171,7 +30177,7 @@
         <v>623060090</v>
       </c>
       <c r="W189" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X189" t="n">
         <v>13</v>
@@ -30206,10 +30212,10 @@
         </is>
       </c>
       <c r="AF189" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AG189" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AH189" t="n">
         <v>100</v>
@@ -30300,7 +30306,7 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>404659</v>
+        <v>336718</v>
       </c>
       <c r="M190" t="n">
         <v>623060116</v>
@@ -30331,7 +30337,7 @@
         <v>623060116</v>
       </c>
       <c r="W190" t="n">
-        <v>404659</v>
+        <v>336718</v>
       </c>
       <c r="X190" t="n">
         <v>13</v>
@@ -30454,7 +30460,7 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M191" t="n">
         <v>623080377</v>
@@ -30485,7 +30491,7 @@
         <v>623080377</v>
       </c>
       <c r="W191" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X191" t="n">
         <v>13</v>
@@ -30770,7 +30776,7 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
         <v>623080380</v>
@@ -30805,7 +30811,7 @@
         <v>623080380</v>
       </c>
       <c r="W193" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="X193" t="n">
         <v>13</v>
@@ -30840,13 +30846,13 @@
         </is>
       </c>
       <c r="AF193" t="n">
-        <v>420</v>
+        <v>860</v>
       </c>
       <c r="AG193" t="n">
-        <v>416</v>
+        <v>831</v>
       </c>
       <c r="AH193" t="n">
-        <v>99.05</v>
+        <v>96.63</v>
       </c>
       <c r="AI193" t="inlineStr">
         <is>
@@ -30859,14 +30865,18 @@
         </is>
       </c>
       <c r="AK193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL193" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="AM193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="AN193" t="n">
         <v>0</v>
       </c>
@@ -31258,7 +31268,7 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M196" t="n">
         <v>623080455</v>
@@ -31289,7 +31299,7 @@
         <v>623080455</v>
       </c>
       <c r="W196" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X196" t="n">
         <v>13</v>
@@ -31412,7 +31422,7 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="M197" t="n">
         <v>623080475</v>
@@ -31447,7 +31457,7 @@
         <v>623080475</v>
       </c>
       <c r="W197" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="X197" t="n">
         <v>13</v>
@@ -31570,7 +31580,7 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M198" t="n">
         <v>623090019</v>
@@ -31601,7 +31611,7 @@
         <v>623090019</v>
       </c>
       <c r="W198" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X198" t="n">
         <v>13</v>
@@ -31724,7 +31734,7 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M199" t="n">
         <v>623090021</v>
@@ -31755,7 +31765,7 @@
         <v>623090021</v>
       </c>
       <c r="W199" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X199" t="n">
         <v>13</v>
@@ -31944,13 +31954,13 @@
         </is>
       </c>
       <c r="AF200" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AG200" t="n">
-        <v>472</v>
+        <v>904</v>
       </c>
       <c r="AH200" t="n">
-        <v>94.40000000000001</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="AI200" t="inlineStr">
         <is>
@@ -32108,10 +32118,10 @@
         </is>
       </c>
       <c r="AF201" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="AG201" t="n">
-        <v>413</v>
+        <v>767</v>
       </c>
       <c r="AH201" t="n">
         <v>98.33</v>
@@ -32206,7 +32216,7 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M202" t="n">
         <v>623090111</v>
@@ -32237,7 +32247,7 @@
         <v>623090111</v>
       </c>
       <c r="W202" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X202" t="n">
         <v>13</v>
@@ -32426,13 +32436,13 @@
         </is>
       </c>
       <c r="AF203" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="AG203" t="n">
-        <v>387</v>
+        <v>744</v>
       </c>
       <c r="AH203" t="n">
-        <v>99.23</v>
+        <v>99.2</v>
       </c>
       <c r="AI203" t="inlineStr">
         <is>
@@ -32520,7 +32530,7 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M204" t="n">
         <v>623090163</v>
@@ -32551,7 +32561,7 @@
         <v>623090163</v>
       </c>
       <c r="W204" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X204" t="n">
         <v>13</v>
@@ -32740,17 +32750,17 @@
         </is>
       </c>
       <c r="AF205" t="n">
-        <v>430</v>
+        <v>910</v>
       </c>
       <c r="AG205" t="n">
-        <v>420</v>
+        <v>849</v>
       </c>
       <c r="AH205" t="n">
-        <v>97.67</v>
+        <v>93.3</v>
       </c>
       <c r="AI205" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AJ205" t="inlineStr">
@@ -32904,13 +32914,13 @@
         </is>
       </c>
       <c r="AF206" t="n">
-        <v>560</v>
+        <v>1040</v>
       </c>
       <c r="AG206" t="n">
-        <v>531</v>
+        <v>987</v>
       </c>
       <c r="AH206" t="n">
-        <v>94.81999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AI206" t="inlineStr">
         <is>
@@ -33318,7 +33328,7 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M209" t="n">
         <v>623090227</v>
@@ -33349,7 +33359,7 @@
         <v>623090227</v>
       </c>
       <c r="W209" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X209" t="n">
         <v>13</v>
@@ -33958,7 +33968,7 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M213" t="n">
         <v>623100170</v>
@@ -33989,7 +33999,7 @@
         <v>623100170</v>
       </c>
       <c r="W213" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X213" t="n">
         <v>13</v>
@@ -34274,7 +34284,7 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M215" t="n">
         <v>623100187</v>
@@ -34309,7 +34319,7 @@
         <v>623100187</v>
       </c>
       <c r="W215" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X215" t="n">
         <v>13</v>
@@ -34432,7 +34442,7 @@
         </is>
       </c>
       <c r="L216" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M216" t="n">
         <v>623100203</v>
@@ -34463,7 +34473,7 @@
         <v>623100203</v>
       </c>
       <c r="W216" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X216" t="n">
         <v>13</v>
@@ -34586,7 +34596,7 @@
         </is>
       </c>
       <c r="L217" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M217" t="n">
         <v>623100209</v>
@@ -34617,7 +34627,7 @@
         <v>623100209</v>
       </c>
       <c r="W217" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X217" t="n">
         <v>13</v>
@@ -34806,13 +34816,13 @@
         </is>
       </c>
       <c r="AF218" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG218" t="n">
-        <v>272</v>
+        <v>507</v>
       </c>
       <c r="AH218" t="n">
-        <v>97.14</v>
+        <v>97.5</v>
       </c>
       <c r="AI218" t="inlineStr">
         <is>
@@ -34966,13 +34976,13 @@
         </is>
       </c>
       <c r="AF219" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AG219" t="n">
-        <v>355</v>
+        <v>439</v>
       </c>
       <c r="AH219" t="n">
-        <v>98.61</v>
+        <v>97.56</v>
       </c>
       <c r="AI219" t="inlineStr">
         <is>
@@ -35384,7 +35394,7 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M222" t="n">
         <v>623110211</v>
@@ -35415,7 +35425,7 @@
         <v>623110211</v>
       </c>
       <c r="W222" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X222" t="n">
         <v>13</v>
@@ -35538,7 +35548,7 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="M223" t="n">
         <v>623110220</v>
@@ -35569,7 +35579,7 @@
         <v>623110220</v>
       </c>
       <c r="W223" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="X223" t="n">
         <v>13</v>
@@ -35604,13 +35614,13 @@
         </is>
       </c>
       <c r="AF223" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG223" t="n">
-        <v>276</v>
+        <v>516</v>
       </c>
       <c r="AH223" t="n">
-        <v>98.56999999999999</v>
+        <v>99.23</v>
       </c>
       <c r="AI223" t="inlineStr">
         <is>
@@ -35623,7 +35633,7 @@
         </is>
       </c>
       <c r="AK223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL223" t="inlineStr">
         <is>
@@ -35856,7 +35866,7 @@
         </is>
       </c>
       <c r="L225" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M225" t="n">
         <v>623110250</v>
@@ -35891,7 +35901,7 @@
         <v>623110250</v>
       </c>
       <c r="W225" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X225" t="n">
         <v>13</v>
@@ -36238,13 +36248,13 @@
         </is>
       </c>
       <c r="AF227" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="AG227" t="n">
-        <v>412</v>
+        <v>770</v>
       </c>
       <c r="AH227" t="n">
-        <v>98.09999999999999</v>
+        <v>98.72</v>
       </c>
       <c r="AI227" t="inlineStr">
         <is>
@@ -36332,7 +36342,7 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M228" t="n">
         <v>624020037</v>
@@ -36363,7 +36373,7 @@
         <v>624020037</v>
       </c>
       <c r="W228" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X228" t="n">
         <v>13</v>
@@ -36486,7 +36496,7 @@
         </is>
       </c>
       <c r="L229" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M229" t="n">
         <v>624020044</v>
@@ -36517,7 +36527,7 @@
         <v>624020044</v>
       </c>
       <c r="W229" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X229" t="n">
         <v>13</v>
@@ -36640,7 +36650,7 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M230" t="n">
         <v>624020085</v>
@@ -36671,7 +36681,7 @@
         <v>624020085</v>
       </c>
       <c r="W230" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X230" t="n">
         <v>13</v>
@@ -36860,13 +36870,13 @@
         </is>
       </c>
       <c r="AF231" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="AG231" t="n">
-        <v>253</v>
+        <v>464</v>
       </c>
       <c r="AH231" t="n">
-        <v>97.31</v>
+        <v>96.67</v>
       </c>
       <c r="AI231" t="inlineStr">
         <is>
@@ -37120,7 +37130,7 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M233" t="n">
         <v>624020107</v>
@@ -37151,7 +37161,7 @@
         <v>624020107</v>
       </c>
       <c r="W233" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X233" t="n">
         <v>13</v>
@@ -37340,13 +37350,13 @@
         </is>
       </c>
       <c r="AF234" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="AG234" t="n">
-        <v>385</v>
+        <v>745</v>
       </c>
       <c r="AH234" t="n">
-        <v>98.72</v>
+        <v>99.33</v>
       </c>
       <c r="AI234" t="inlineStr">
         <is>
@@ -37504,13 +37514,13 @@
         </is>
       </c>
       <c r="AF235" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="AG235" t="n">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="AH235" t="n">
-        <v>99.59999999999999</v>
+        <v>99.17</v>
       </c>
       <c r="AI235" t="inlineStr">
         <is>
@@ -37598,7 +37608,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M236" t="n">
         <v>624020155</v>
@@ -37629,7 +37639,7 @@
         <v>624020155</v>
       </c>
       <c r="W236" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X236" t="n">
         <v>13</v>
@@ -37914,7 +37924,7 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M238" t="n">
         <v>624020210</v>
@@ -37945,7 +37955,7 @@
         <v>624020210</v>
       </c>
       <c r="W238" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X238" t="n">
         <v>13</v>
@@ -38068,7 +38078,7 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M239" t="n">
         <v>624020214</v>
@@ -38103,7 +38113,7 @@
         <v>624020214</v>
       </c>
       <c r="W239" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X239" t="n">
         <v>13</v>
@@ -38226,7 +38236,7 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M240" t="n">
         <v>624020369</v>
@@ -38257,7 +38267,7 @@
         <v>624020369</v>
       </c>
       <c r="W240" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X240" t="n">
         <v>13</v>
@@ -38380,7 +38390,7 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M241" t="n">
         <v>624020479</v>
@@ -38411,7 +38421,7 @@
         <v>624020479</v>
       </c>
       <c r="W241" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X241" t="n">
         <v>13</v>
@@ -38534,7 +38544,7 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M242" t="n">
         <v>624020499</v>
@@ -38565,7 +38575,7 @@
         <v>624020499</v>
       </c>
       <c r="W242" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X242" t="n">
         <v>13</v>
@@ -38844,7 +38854,7 @@
         </is>
       </c>
       <c r="L244" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M244" t="n">
         <v>624020552</v>
@@ -38875,7 +38885,7 @@
         <v>624020552</v>
       </c>
       <c r="W244" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X244" t="n">
         <v>13</v>
@@ -38998,7 +39008,7 @@
         </is>
       </c>
       <c r="L245" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M245" t="n">
         <v>624030016</v>
@@ -39029,7 +39039,7 @@
         <v>624030016</v>
       </c>
       <c r="W245" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X245" t="n">
         <v>13</v>
@@ -39380,13 +39390,13 @@
         </is>
       </c>
       <c r="AF247" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG247" t="n">
-        <v>275</v>
+        <v>513</v>
       </c>
       <c r="AH247" t="n">
-        <v>98.20999999999999</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="AI247" t="inlineStr">
         <is>
@@ -39702,13 +39712,13 @@
         </is>
       </c>
       <c r="AF249" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="AG249" t="n">
-        <v>275</v>
+        <v>488</v>
       </c>
       <c r="AH249" t="n">
-        <v>98.20999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AI249" t="inlineStr">
         <is>
@@ -39800,7 +39810,7 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M250" t="n">
         <v>624030294</v>
@@ -39831,7 +39841,7 @@
         <v>624030294</v>
       </c>
       <c r="W250" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X250" t="n">
         <v>13</v>
@@ -40020,13 +40030,13 @@
         </is>
       </c>
       <c r="AF251" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="AG251" t="n">
-        <v>415</v>
+        <v>772</v>
       </c>
       <c r="AH251" t="n">
-        <v>98.81</v>
+        <v>98.97</v>
       </c>
       <c r="AI251" t="inlineStr">
         <is>
@@ -40342,13 +40352,13 @@
         </is>
       </c>
       <c r="AF253" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AG253" t="n">
-        <v>248</v>
+        <v>478</v>
       </c>
       <c r="AH253" t="n">
-        <v>95.38</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AI253" t="inlineStr">
         <is>
@@ -40361,7 +40371,7 @@
         </is>
       </c>
       <c r="AK253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL253" t="inlineStr">
         <is>
@@ -40672,13 +40682,13 @@
         </is>
       </c>
       <c r="AF255" t="n">
-        <v>420</v>
+        <v>750</v>
       </c>
       <c r="AG255" t="n">
-        <v>419</v>
+        <v>746</v>
       </c>
       <c r="AH255" t="n">
-        <v>99.76000000000001</v>
+        <v>99.47</v>
       </c>
       <c r="AI255" t="inlineStr">
         <is>
@@ -41252,7 +41262,7 @@
         </is>
       </c>
       <c r="L259" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M259" t="n">
         <v>624040035</v>
@@ -41283,7 +41293,7 @@
         <v>624040035</v>
       </c>
       <c r="W259" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X259" t="n">
         <v>13</v>
@@ -41796,13 +41806,13 @@
         </is>
       </c>
       <c r="AF262" t="n">
-        <v>390</v>
+        <v>720</v>
       </c>
       <c r="AG262" t="n">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="AH262" t="n">
-        <v>98.72</v>
+        <v>98.89</v>
       </c>
       <c r="AI262" t="inlineStr">
         <is>
@@ -41890,7 +41900,7 @@
         </is>
       </c>
       <c r="L263" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="M263" t="n">
         <v>624040283</v>
@@ -41921,7 +41931,7 @@
         <v>624040283</v>
       </c>
       <c r="W263" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="X263" t="n">
         <v>13</v>
@@ -41955,17 +41965,23 @@
           <t>no</t>
         </is>
       </c>
-      <c r="AF263" t="inlineStr"/>
-      <c r="AG263" t="inlineStr"/>
-      <c r="AH263" t="inlineStr"/>
+      <c r="AF263" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>147</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>98</v>
+      </c>
       <c r="AI263" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AJ263" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AK263" t="n">
@@ -42048,7 +42064,7 @@
         </is>
       </c>
       <c r="L264" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M264" t="n">
         <v>624040330</v>
@@ -42079,7 +42095,7 @@
         <v>624040330</v>
       </c>
       <c r="W264" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X264" t="n">
         <v>13</v>
@@ -42202,7 +42218,7 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M265" t="n">
         <v>624040331</v>
@@ -42233,7 +42249,7 @@
         <v>624040331</v>
       </c>
       <c r="W265" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X265" t="n">
         <v>13</v>
@@ -42422,13 +42438,13 @@
         </is>
       </c>
       <c r="AF266" t="n">
-        <v>420</v>
+        <v>785</v>
       </c>
       <c r="AG266" t="n">
-        <v>414</v>
+        <v>773</v>
       </c>
       <c r="AH266" t="n">
-        <v>98.56999999999999</v>
+        <v>98.47</v>
       </c>
       <c r="AI266" t="inlineStr">
         <is>
@@ -42582,13 +42598,13 @@
         </is>
       </c>
       <c r="AF267" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG267" t="n">
-        <v>272</v>
+        <v>505</v>
       </c>
       <c r="AH267" t="n">
-        <v>97.14</v>
+        <v>97.12</v>
       </c>
       <c r="AI267" t="inlineStr">
         <is>
@@ -42746,13 +42762,13 @@
         </is>
       </c>
       <c r="AF268" t="n">
-        <v>410</v>
+        <v>790</v>
       </c>
       <c r="AG268" t="n">
-        <v>394</v>
+        <v>752</v>
       </c>
       <c r="AH268" t="n">
-        <v>96.09999999999999</v>
+        <v>95.19</v>
       </c>
       <c r="AI268" t="inlineStr">
         <is>
@@ -43076,13 +43092,13 @@
         </is>
       </c>
       <c r="AF270" t="n">
-        <v>560</v>
+        <v>1040</v>
       </c>
       <c r="AG270" t="n">
-        <v>543</v>
+        <v>1010</v>
       </c>
       <c r="AH270" t="n">
-        <v>96.95999999999999</v>
+        <v>97.12</v>
       </c>
       <c r="AI270" t="inlineStr">
         <is>
@@ -43174,7 +43190,7 @@
         </is>
       </c>
       <c r="L271" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M271" t="n">
         <v>624050492</v>
@@ -43209,7 +43225,7 @@
         <v>624050492</v>
       </c>
       <c r="W271" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X271" t="n">
         <v>13</v>
@@ -43332,7 +43348,7 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M272" t="n">
         <v>624060009</v>
@@ -43363,7 +43379,7 @@
         <v>624060009</v>
       </c>
       <c r="W272" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X272" t="n">
         <v>13</v>
@@ -43486,7 +43502,7 @@
         </is>
       </c>
       <c r="L273" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M273" t="n">
         <v>624060028</v>
@@ -43517,7 +43533,7 @@
         <v>624060028</v>
       </c>
       <c r="W273" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X273" t="n">
         <v>13</v>
@@ -43706,13 +43722,13 @@
         </is>
       </c>
       <c r="AF274" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="AG274" t="n">
-        <v>356</v>
+        <v>714</v>
       </c>
       <c r="AH274" t="n">
-        <v>98.89</v>
+        <v>99.17</v>
       </c>
       <c r="AI274" t="inlineStr">
         <is>
@@ -43966,7 +43982,7 @@
         </is>
       </c>
       <c r="L276" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M276" t="n">
         <v>624060087</v>
@@ -43997,7 +44013,7 @@
         <v>624060087</v>
       </c>
       <c r="W276" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X276" t="n">
         <v>13</v>
@@ -44282,7 +44298,7 @@
         </is>
       </c>
       <c r="L278" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M278" t="n">
         <v>624060132</v>
@@ -44313,7 +44329,7 @@
         <v>624060132</v>
       </c>
       <c r="W278" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X278" t="n">
         <v>13</v>
@@ -44436,7 +44452,7 @@
         </is>
       </c>
       <c r="L279" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M279" t="n">
         <v>624060254</v>
@@ -44467,7 +44483,7 @@
         <v>624060254</v>
       </c>
       <c r="W279" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X279" t="n">
         <v>13</v>
@@ -44656,13 +44672,13 @@
         </is>
       </c>
       <c r="AF280" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="AG280" t="n">
-        <v>247</v>
+        <v>457</v>
       </c>
       <c r="AH280" t="n">
-        <v>95</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="AI280" t="inlineStr">
         <is>
@@ -44754,7 +44770,7 @@
         </is>
       </c>
       <c r="L281" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M281" t="n">
         <v>624060317</v>
@@ -44785,7 +44801,7 @@
         <v>624060317</v>
       </c>
       <c r="W281" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X281" t="n">
         <v>13</v>
@@ -45136,13 +45152,13 @@
         </is>
       </c>
       <c r="AF283" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="AG283" t="n">
-        <v>267</v>
+        <v>477</v>
       </c>
       <c r="AH283" t="n">
-        <v>95.36</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AI283" t="inlineStr">
         <is>
@@ -45234,7 +45250,7 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="M284" t="n">
         <v>624060384</v>
@@ -45265,7 +45281,7 @@
         <v>624060384</v>
       </c>
       <c r="W284" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="X284" t="n">
         <v>13</v>
@@ -45300,10 +45316,10 @@
         </is>
       </c>
       <c r="AF284" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="AG284" t="n">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="AH284" t="n">
         <v>97.5</v>
@@ -45319,7 +45335,7 @@
         </is>
       </c>
       <c r="AK284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL284" t="inlineStr">
         <is>
@@ -45398,7 +45414,7 @@
         </is>
       </c>
       <c r="L285" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M285" t="n">
         <v>624070010</v>
@@ -45429,7 +45445,7 @@
         <v>624070010</v>
       </c>
       <c r="W285" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X285" t="n">
         <v>13</v>
@@ -45552,7 +45568,7 @@
         </is>
       </c>
       <c r="L286" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M286" t="n">
         <v>624070011</v>
@@ -45583,7 +45599,7 @@
         <v>624070011</v>
       </c>
       <c r="W286" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X286" t="n">
         <v>13</v>
@@ -45706,7 +45722,7 @@
         </is>
       </c>
       <c r="L287" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="M287" t="n">
         <v>624070020</v>
@@ -45737,7 +45753,7 @@
         <v>624070020</v>
       </c>
       <c r="W287" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="X287" t="n">
         <v>13</v>
@@ -45772,13 +45788,13 @@
         </is>
       </c>
       <c r="AF287" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="AG287" t="n">
-        <v>383</v>
+        <v>723</v>
       </c>
       <c r="AH287" t="n">
-        <v>98.20999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AI287" t="inlineStr">
         <is>
@@ -45791,7 +45807,7 @@
         </is>
       </c>
       <c r="AK287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL287" t="inlineStr">
         <is>
@@ -45936,17 +45952,17 @@
         </is>
       </c>
       <c r="AF288" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG288" t="n">
-        <v>263</v>
+        <v>494</v>
       </c>
       <c r="AH288" t="n">
-        <v>93.93000000000001</v>
+        <v>95</v>
       </c>
       <c r="AI288" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AJ288" t="inlineStr">
@@ -46034,7 +46050,7 @@
         </is>
       </c>
       <c r="L289" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M289" t="n">
         <v>624070084</v>
@@ -46065,7 +46081,7 @@
         <v>624070084</v>
       </c>
       <c r="W289" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X289" t="n">
         <v>13</v>
@@ -46188,7 +46204,7 @@
         </is>
       </c>
       <c r="L290" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M290" t="n">
         <v>624070225</v>
@@ -46223,7 +46239,7 @@
         <v>624070225</v>
       </c>
       <c r="W290" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X290" t="n">
         <v>13</v>
@@ -46346,7 +46362,7 @@
         </is>
       </c>
       <c r="L291" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M291" t="n">
         <v>624070226</v>
@@ -46377,7 +46393,7 @@
         <v>624070226</v>
       </c>
       <c r="W291" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X291" t="n">
         <v>13</v>
@@ -46500,7 +46516,7 @@
         </is>
       </c>
       <c r="L292" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M292" t="n">
         <v>624070227</v>
@@ -46531,7 +46547,7 @@
         <v>624070227</v>
       </c>
       <c r="W292" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X292" t="n">
         <v>13</v>
@@ -46654,7 +46670,7 @@
         </is>
       </c>
       <c r="L293" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M293" t="n">
         <v>624070231</v>
@@ -46685,7 +46701,7 @@
         <v>624070231</v>
       </c>
       <c r="W293" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X293" t="n">
         <v>13</v>
@@ -46808,7 +46824,7 @@
         </is>
       </c>
       <c r="L294" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M294" t="n">
         <v>624070250</v>
@@ -46839,7 +46855,7 @@
         <v>624070250</v>
       </c>
       <c r="W294" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X294" t="n">
         <v>13</v>
@@ -47028,13 +47044,13 @@
         </is>
       </c>
       <c r="AF295" t="n">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="AG295" t="n">
-        <v>415</v>
+        <v>714</v>
       </c>
       <c r="AH295" t="n">
-        <v>98.81</v>
+        <v>99.17</v>
       </c>
       <c r="AI295" t="inlineStr">
         <is>
@@ -47126,7 +47142,7 @@
         </is>
       </c>
       <c r="L296" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M296" t="n">
         <v>624070278</v>
@@ -47157,7 +47173,7 @@
         <v>624070278</v>
       </c>
       <c r="W296" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X296" t="n">
         <v>13</v>
@@ -47434,7 +47450,7 @@
         </is>
       </c>
       <c r="L298" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M298" t="n">
         <v>624070338</v>
@@ -47465,7 +47481,7 @@
         <v>624070338</v>
       </c>
       <c r="W298" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X298" t="n">
         <v>13</v>
@@ -47588,7 +47604,7 @@
         </is>
       </c>
       <c r="L299" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M299" t="n">
         <v>624070339</v>
@@ -47619,7 +47635,7 @@
         <v>624070339</v>
       </c>
       <c r="W299" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X299" t="n">
         <v>13</v>
@@ -47904,7 +47920,7 @@
         </is>
       </c>
       <c r="L301" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M301" t="n">
         <v>624070394</v>
@@ -47939,7 +47955,7 @@
         <v>624070394</v>
       </c>
       <c r="W301" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X301" t="n">
         <v>13</v>
@@ -48222,7 +48238,7 @@
         </is>
       </c>
       <c r="L303" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M303" t="n">
         <v>624080032</v>
@@ -48253,7 +48269,7 @@
         <v>624080032</v>
       </c>
       <c r="W303" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X303" t="n">
         <v>13</v>
@@ -48442,13 +48458,13 @@
         </is>
       </c>
       <c r="AF304" t="n">
-        <v>390</v>
+        <v>870</v>
       </c>
       <c r="AG304" t="n">
-        <v>372</v>
+        <v>827</v>
       </c>
       <c r="AH304" t="n">
-        <v>95.38</v>
+        <v>95.06</v>
       </c>
       <c r="AI304" t="inlineStr">
         <is>
@@ -48540,7 +48556,7 @@
         </is>
       </c>
       <c r="L305" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="M305" t="n">
         <v>624080083</v>
@@ -48571,7 +48587,7 @@
         <v>624080083</v>
       </c>
       <c r="W305" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="X305" t="n">
         <v>13</v>
@@ -48606,17 +48622,17 @@
         </is>
       </c>
       <c r="AF305" t="n">
-        <v>420</v>
+        <v>880</v>
       </c>
       <c r="AG305" t="n">
-        <v>415</v>
+        <v>832</v>
       </c>
       <c r="AH305" t="n">
-        <v>98.81</v>
+        <v>94.55</v>
       </c>
       <c r="AI305" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AJ305" t="inlineStr">
@@ -48625,7 +48641,7 @@
         </is>
       </c>
       <c r="AK305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL305" t="inlineStr">
         <is>
@@ -48704,7 +48720,7 @@
         </is>
       </c>
       <c r="L306" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M306" t="n">
         <v>624080126</v>
@@ -48739,7 +48755,7 @@
         <v>624080126</v>
       </c>
       <c r="W306" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X306" t="n">
         <v>13</v>
@@ -48928,13 +48944,13 @@
         </is>
       </c>
       <c r="AF307" t="n">
-        <v>510</v>
+        <v>990</v>
       </c>
       <c r="AG307" t="n">
-        <v>471</v>
+        <v>903</v>
       </c>
       <c r="AH307" t="n">
-        <v>92.34999999999999</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="AI307" t="inlineStr">
         <is>
@@ -49188,7 +49204,7 @@
         </is>
       </c>
       <c r="L309" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M309" t="n">
         <v>624080234</v>
@@ -49223,7 +49239,7 @@
         <v>624080234</v>
       </c>
       <c r="W309" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X309" t="n">
         <v>13</v>
@@ -49346,7 +49362,7 @@
         </is>
       </c>
       <c r="L310" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M310" t="n">
         <v>624080235</v>
@@ -49381,7 +49397,7 @@
         <v>624080235</v>
       </c>
       <c r="W310" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X310" t="n">
         <v>13</v>
@@ -49666,7 +49682,7 @@
         </is>
       </c>
       <c r="L312" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M312" t="n">
         <v>624080310</v>
@@ -49701,7 +49717,7 @@
         <v>624080310</v>
       </c>
       <c r="W312" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X312" t="n">
         <v>13</v>
@@ -49824,7 +49840,7 @@
         </is>
       </c>
       <c r="L313" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M313" t="n">
         <v>624080340</v>
@@ -49855,7 +49871,7 @@
         <v>624080340</v>
       </c>
       <c r="W313" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X313" t="n">
         <v>13</v>
@@ -50136,7 +50152,7 @@
         </is>
       </c>
       <c r="L315" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M315" t="n">
         <v>624080352</v>
@@ -50167,7 +50183,7 @@
         <v>624080352</v>
       </c>
       <c r="W315" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X315" t="n">
         <v>13</v>
@@ -50290,7 +50306,7 @@
         </is>
       </c>
       <c r="L316" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M316" t="n">
         <v>624080354</v>
@@ -50325,7 +50341,7 @@
         <v>624080354</v>
       </c>
       <c r="W316" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X316" t="n">
         <v>13</v>
@@ -50514,13 +50530,13 @@
         </is>
       </c>
       <c r="AF317" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="AG317" t="n">
-        <v>384</v>
+        <v>742</v>
       </c>
       <c r="AH317" t="n">
-        <v>98.45999999999999</v>
+        <v>98.93000000000001</v>
       </c>
       <c r="AI317" t="inlineStr">
         <is>
@@ -50774,7 +50790,7 @@
         </is>
       </c>
       <c r="L319" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M319" t="n">
         <v>624090037</v>
@@ -50809,7 +50825,7 @@
         <v>624090037</v>
       </c>
       <c r="W319" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X319" t="n">
         <v>13</v>
@@ -51086,7 +51102,7 @@
         </is>
       </c>
       <c r="L321" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M321" t="n">
         <v>624090058</v>
@@ -51121,7 +51137,7 @@
         <v>624090058</v>
       </c>
       <c r="W321" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X321" t="n">
         <v>13</v>
@@ -51398,7 +51414,7 @@
         </is>
       </c>
       <c r="L323" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M323" t="n">
         <v>624090131</v>
@@ -51429,7 +51445,7 @@
         <v>624090131</v>
       </c>
       <c r="W323" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X323" t="n">
         <v>13</v>
@@ -51552,7 +51568,7 @@
         </is>
       </c>
       <c r="L324" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M324" t="n">
         <v>624090178</v>
@@ -51583,7 +51599,7 @@
         <v>624090178</v>
       </c>
       <c r="W324" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X324" t="n">
         <v>13</v>
@@ -51706,7 +51722,7 @@
         </is>
       </c>
       <c r="L325" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M325" t="n">
         <v>624090210</v>
@@ -51737,7 +51753,7 @@
         <v>624090210</v>
       </c>
       <c r="W325" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X325" t="n">
         <v>13</v>
@@ -52022,7 +52038,7 @@
         </is>
       </c>
       <c r="L327" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M327" t="n">
         <v>624090271</v>
@@ -52057,7 +52073,7 @@
         <v>624090271</v>
       </c>
       <c r="W327" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X327" t="n">
         <v>13</v>
@@ -52500,7 +52516,7 @@
         </is>
       </c>
       <c r="L330" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M330" t="n">
         <v>624090323</v>
@@ -52535,7 +52551,7 @@
         <v>624090323</v>
       </c>
       <c r="W330" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X330" t="n">
         <v>13</v>
@@ -52824,7 +52840,7 @@
         </is>
       </c>
       <c r="L332" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M332" t="n">
         <v>624090373</v>
@@ -52855,7 +52871,7 @@
         <v>624090373</v>
       </c>
       <c r="W332" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X332" t="n">
         <v>13</v>
@@ -52978,7 +52994,7 @@
         </is>
       </c>
       <c r="L333" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M333" t="n">
         <v>624090444</v>
@@ -53009,7 +53025,7 @@
         <v>624090444</v>
       </c>
       <c r="W333" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X333" t="n">
         <v>13</v>
@@ -53132,7 +53148,7 @@
         </is>
       </c>
       <c r="L334" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M334" t="n">
         <v>624090502</v>
@@ -53163,7 +53179,7 @@
         <v>624090502</v>
       </c>
       <c r="W334" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X334" t="n">
         <v>13</v>
@@ -53286,7 +53302,7 @@
         </is>
       </c>
       <c r="L335" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M335" t="n">
         <v>624100015</v>
@@ -53321,7 +53337,7 @@
         <v>624100015</v>
       </c>
       <c r="W335" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X335" t="n">
         <v>13</v>
@@ -53510,13 +53526,13 @@
         </is>
       </c>
       <c r="AF336" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="AG336" t="n">
-        <v>413</v>
+        <v>773</v>
       </c>
       <c r="AH336" t="n">
-        <v>98.33</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AI336" t="inlineStr">
         <is>
@@ -53608,7 +53624,7 @@
         </is>
       </c>
       <c r="L337" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M337" t="n">
         <v>624100171</v>
@@ -53643,7 +53659,7 @@
         <v>624100171</v>
       </c>
       <c r="W337" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X337" t="n">
         <v>13</v>
@@ -53766,7 +53782,7 @@
         </is>
       </c>
       <c r="L338" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M338" t="n">
         <v>624100200</v>
@@ -53797,7 +53813,7 @@
         <v>624100200</v>
       </c>
       <c r="W338" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X338" t="n">
         <v>13</v>
@@ -53920,7 +53936,7 @@
         </is>
       </c>
       <c r="L339" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M339" t="n">
         <v>624100230</v>
@@ -53951,7 +53967,7 @@
         <v>624100230</v>
       </c>
       <c r="W339" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X339" t="n">
         <v>13</v>
@@ -54140,13 +54156,13 @@
         </is>
       </c>
       <c r="AF340" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="AG340" t="n">
-        <v>387</v>
+        <v>745</v>
       </c>
       <c r="AH340" t="n">
-        <v>99.23</v>
+        <v>99.33</v>
       </c>
       <c r="AI340" t="inlineStr">
         <is>
@@ -54300,13 +54316,13 @@
         </is>
       </c>
       <c r="AF341" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG341" t="n">
-        <v>273</v>
+        <v>510</v>
       </c>
       <c r="AH341" t="n">
-        <v>97.5</v>
+        <v>98.08</v>
       </c>
       <c r="AI341" t="inlineStr">
         <is>
@@ -54710,7 +54726,7 @@
         </is>
       </c>
       <c r="L344" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M344" t="n">
         <v>624100457</v>
@@ -54741,7 +54757,7 @@
         <v>624100457</v>
       </c>
       <c r="W344" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X344" t="n">
         <v>13</v>
@@ -55026,7 +55042,7 @@
         </is>
       </c>
       <c r="L346" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M346" t="n">
         <v>624110015</v>
@@ -55061,7 +55077,7 @@
         <v>624110015</v>
       </c>
       <c r="W346" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X346" t="n">
         <v>13</v>
@@ -55184,7 +55200,7 @@
         </is>
       </c>
       <c r="L347" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M347" t="n">
         <v>624110084</v>
@@ -55215,7 +55231,7 @@
         <v>624110084</v>
       </c>
       <c r="W347" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X347" t="n">
         <v>13</v>
@@ -55404,13 +55420,13 @@
         </is>
       </c>
       <c r="AF348" t="n">
-        <v>510</v>
+        <v>950</v>
       </c>
       <c r="AG348" t="n">
-        <v>456</v>
+        <v>864</v>
       </c>
       <c r="AH348" t="n">
-        <v>89.41</v>
+        <v>90.95</v>
       </c>
       <c r="AI348" t="inlineStr">
         <is>
@@ -55423,7 +55439,7 @@
         </is>
       </c>
       <c r="AK348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL348" t="inlineStr">
         <is>
@@ -55568,17 +55584,17 @@
         </is>
       </c>
       <c r="AF349" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="AG349" t="n">
-        <v>227</v>
+        <v>458</v>
       </c>
       <c r="AH349" t="n">
-        <v>94.58</v>
+        <v>95.42</v>
       </c>
       <c r="AI349" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AJ349" t="inlineStr">
@@ -55732,13 +55748,13 @@
         </is>
       </c>
       <c r="AF350" t="n">
-        <v>460</v>
+        <v>940</v>
       </c>
       <c r="AG350" t="n">
-        <v>435</v>
+        <v>884</v>
       </c>
       <c r="AH350" t="n">
-        <v>94.56999999999999</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="AI350" t="inlineStr">
         <is>
@@ -55751,7 +55767,7 @@
         </is>
       </c>
       <c r="AK350" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL350" t="inlineStr">
         <is>
@@ -55830,7 +55846,7 @@
         </is>
       </c>
       <c r="L351" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M351" t="n">
         <v>624110346</v>
@@ -55861,7 +55877,7 @@
         <v>624110346</v>
       </c>
       <c r="W351" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X351" t="n">
         <v>13</v>
@@ -56140,7 +56156,7 @@
         </is>
       </c>
       <c r="L353" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M353" t="n">
         <v>624120097</v>
@@ -56171,7 +56187,7 @@
         <v>624120097</v>
       </c>
       <c r="W353" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X353" t="n">
         <v>13</v>
@@ -56456,7 +56472,7 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M355" t="n">
         <v>624120143</v>
@@ -56487,7 +56503,7 @@
         <v>624120143</v>
       </c>
       <c r="W355" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X355" t="n">
         <v>13</v>
@@ -56610,7 +56626,7 @@
         </is>
       </c>
       <c r="L356" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M356" t="n">
         <v>624120144</v>
@@ -56641,7 +56657,7 @@
         <v>624120144</v>
       </c>
       <c r="W356" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X356" t="n">
         <v>13</v>
@@ -56830,13 +56846,13 @@
         </is>
       </c>
       <c r="AF357" t="n">
-        <v>560</v>
+        <v>1040</v>
       </c>
       <c r="AG357" t="n">
-        <v>547</v>
+        <v>1015</v>
       </c>
       <c r="AH357" t="n">
-        <v>97.68000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AI357" t="inlineStr">
         <is>
@@ -56928,7 +56944,7 @@
         </is>
       </c>
       <c r="L358" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M358" t="n">
         <v>625020044</v>
@@ -56959,7 +56975,7 @@
         <v>625020044</v>
       </c>
       <c r="W358" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X358" t="n">
         <v>13</v>
@@ -57082,7 +57098,7 @@
         </is>
       </c>
       <c r="L359" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M359" t="n">
         <v>625020092</v>
@@ -57117,7 +57133,7 @@
         <v>625020092</v>
       </c>
       <c r="W359" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X359" t="n">
         <v>13</v>
@@ -57240,7 +57256,7 @@
         </is>
       </c>
       <c r="L360" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="M360" t="n">
         <v>625020143</v>
@@ -57275,7 +57291,7 @@
         <v>625020143</v>
       </c>
       <c r="W360" t="n">
-        <v>127767</v>
+        <v>99684</v>
       </c>
       <c r="X360" t="n">
         <v>13</v>
@@ -57464,13 +57480,13 @@
         </is>
       </c>
       <c r="AF361" t="n">
-        <v>560</v>
+        <v>1040</v>
       </c>
       <c r="AG361" t="n">
-        <v>525</v>
+        <v>979</v>
       </c>
       <c r="AH361" t="n">
-        <v>93.75</v>
+        <v>94.13</v>
       </c>
       <c r="AI361" t="inlineStr">
         <is>
@@ -57483,7 +57499,7 @@
         </is>
       </c>
       <c r="AK361" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL361" t="inlineStr">
         <is>
@@ -57562,7 +57578,7 @@
         </is>
       </c>
       <c r="L362" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M362" t="n">
         <v>625020285</v>
@@ -57593,7 +57609,7 @@
         <v>625020285</v>
       </c>
       <c r="W362" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X362" t="n">
         <v>13</v>
@@ -57716,7 +57732,7 @@
         </is>
       </c>
       <c r="L363" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M363" t="n">
         <v>625020286</v>
@@ -57747,7 +57763,7 @@
         <v>625020286</v>
       </c>
       <c r="W363" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X363" t="n">
         <v>13</v>
@@ -58422,13 +58438,13 @@
         </is>
       </c>
       <c r="AF367" t="n">
-        <v>390</v>
+        <v>690</v>
       </c>
       <c r="AG367" t="n">
-        <v>386</v>
+        <v>684</v>
       </c>
       <c r="AH367" t="n">
-        <v>98.97</v>
+        <v>99.13</v>
       </c>
       <c r="AI367" t="inlineStr">
         <is>
@@ -58516,7 +58532,7 @@
         </is>
       </c>
       <c r="L368" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M368" t="n">
         <v>625020420</v>
@@ -58547,7 +58563,7 @@
         <v>625020420</v>
       </c>
       <c r="W368" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X368" t="n">
         <v>13</v>
@@ -58736,13 +58752,13 @@
         </is>
       </c>
       <c r="AF369" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="AG369" t="n">
-        <v>382</v>
+        <v>740</v>
       </c>
       <c r="AH369" t="n">
-        <v>97.95</v>
+        <v>98.67</v>
       </c>
       <c r="AI369" t="inlineStr">
         <is>
@@ -59154,7 +59170,7 @@
         </is>
       </c>
       <c r="L372" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M372" t="n">
         <v>625020507</v>
@@ -59185,7 +59201,7 @@
         <v>625020507</v>
       </c>
       <c r="W372" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X372" t="n">
         <v>13</v>
@@ -59308,7 +59324,7 @@
         </is>
       </c>
       <c r="L373" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M373" t="n">
         <v>625020542</v>
@@ -59339,7 +59355,7 @@
         <v>625020542</v>
       </c>
       <c r="W373" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X373" t="n">
         <v>13</v>
@@ -59462,7 +59478,7 @@
         </is>
       </c>
       <c r="L374" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M374" t="n">
         <v>625020543</v>
@@ -59493,7 +59509,7 @@
         <v>625020543</v>
       </c>
       <c r="W374" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X374" t="n">
         <v>13</v>
@@ -59682,13 +59698,13 @@
         </is>
       </c>
       <c r="AF375" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG375" t="n">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="AH375" t="n">
-        <v>97.14</v>
+        <v>97.69</v>
       </c>
       <c r="AI375" t="inlineStr">
         <is>
@@ -59842,13 +59858,13 @@
         </is>
       </c>
       <c r="AF376" t="n">
-        <v>430</v>
+        <v>790</v>
       </c>
       <c r="AG376" t="n">
-        <v>424</v>
+        <v>781</v>
       </c>
       <c r="AH376" t="n">
-        <v>98.59999999999999</v>
+        <v>98.86</v>
       </c>
       <c r="AI376" t="inlineStr">
         <is>
@@ -60094,7 +60110,7 @@
         </is>
       </c>
       <c r="L378" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M378" t="n">
         <v>625020638</v>
@@ -60125,7 +60141,7 @@
         <v>625020638</v>
       </c>
       <c r="W378" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X378" t="n">
         <v>13</v>
@@ -60958,13 +60974,13 @@
         </is>
       </c>
       <c r="AF383" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AG383" t="n">
-        <v>486</v>
+        <v>942</v>
       </c>
       <c r="AH383" t="n">
-        <v>93.45999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AI383" t="inlineStr">
         <is>
@@ -60977,7 +60993,7 @@
         </is>
       </c>
       <c r="AK383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL383" t="inlineStr">
         <is>
@@ -61218,7 +61234,7 @@
         </is>
       </c>
       <c r="L385" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M385" t="n">
         <v>625030091</v>
@@ -61249,7 +61265,7 @@
         <v>625030091</v>
       </c>
       <c r="W385" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X385" t="n">
         <v>13</v>
@@ -61438,13 +61454,13 @@
         </is>
       </c>
       <c r="AF386" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="AG386" t="n">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="AH386" t="n">
-        <v>97.86</v>
+        <v>96.8</v>
       </c>
       <c r="AI386" t="inlineStr">
         <is>
@@ -61694,7 +61710,7 @@
         </is>
       </c>
       <c r="L388" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M388" t="n">
         <v>625030144</v>
@@ -61729,7 +61745,7 @@
         <v>625030144</v>
       </c>
       <c r="W388" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X388" t="n">
         <v>13</v>
@@ -61922,13 +61938,13 @@
         </is>
       </c>
       <c r="AF389" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="AG389" t="n">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="AH389" t="n">
-        <v>98.56999999999999</v>
+        <v>98.72</v>
       </c>
       <c r="AI389" t="inlineStr">
         <is>
@@ -62082,13 +62098,13 @@
         </is>
       </c>
       <c r="AF390" t="n">
-        <v>560</v>
+        <v>1040</v>
       </c>
       <c r="AG390" t="n">
-        <v>546</v>
+        <v>1011</v>
       </c>
       <c r="AH390" t="n">
-        <v>97.5</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="AI390" t="inlineStr">
         <is>
@@ -62176,7 +62192,7 @@
         </is>
       </c>
       <c r="L391" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M391" t="n">
         <v>625030182</v>
@@ -62207,7 +62223,7 @@
         <v>625030182</v>
       </c>
       <c r="W391" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X391" t="n">
         <v>13</v>
@@ -62330,7 +62346,7 @@
         </is>
       </c>
       <c r="L392" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="M392" t="n">
         <v>625030234</v>
@@ -62361,7 +62377,7 @@
         <v>625030234</v>
       </c>
       <c r="W392" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="X392" t="n">
         <v>13</v>
@@ -62396,13 +62412,13 @@
         </is>
       </c>
       <c r="AF392" t="n">
-        <v>390</v>
+        <v>850</v>
       </c>
       <c r="AG392" t="n">
-        <v>385</v>
+        <v>816</v>
       </c>
       <c r="AH392" t="n">
-        <v>98.72</v>
+        <v>96</v>
       </c>
       <c r="AI392" t="inlineStr">
         <is>
@@ -62415,7 +62431,7 @@
         </is>
       </c>
       <c r="AK392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL392" t="inlineStr">
         <is>
@@ -62494,7 +62510,7 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M393" t="n">
         <v>625030235</v>
@@ -62525,7 +62541,7 @@
         <v>625030235</v>
       </c>
       <c r="W393" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X393" t="n">
         <v>13</v>
@@ -62648,7 +62664,7 @@
         </is>
       </c>
       <c r="L394" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M394" t="n">
         <v>625030242</v>
@@ -62679,7 +62695,7 @@
         <v>625030242</v>
       </c>
       <c r="W394" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X394" t="n">
         <v>13</v>
@@ -63030,13 +63046,13 @@
         </is>
       </c>
       <c r="AF396" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="AG396" t="n">
-        <v>191</v>
+        <v>342</v>
       </c>
       <c r="AH396" t="n">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="AI396" t="inlineStr">
         <is>
@@ -63194,13 +63210,13 @@
         </is>
       </c>
       <c r="AF397" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="AG397" t="n">
-        <v>417</v>
+        <v>773</v>
       </c>
       <c r="AH397" t="n">
-        <v>99.29000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AI397" t="inlineStr">
         <is>
@@ -63454,7 +63470,7 @@
         </is>
       </c>
       <c r="L399" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M399" t="n">
         <v>625030362</v>
@@ -63485,7 +63501,7 @@
         <v>625030362</v>
       </c>
       <c r="W399" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X399" t="n">
         <v>13</v>
@@ -63674,13 +63690,13 @@
         </is>
       </c>
       <c r="AF400" t="n">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="AG400" t="n">
-        <v>469</v>
+        <v>933</v>
       </c>
       <c r="AH400" t="n">
-        <v>97.70999999999999</v>
+        <v>97.19</v>
       </c>
       <c r="AI400" t="inlineStr">
         <is>
@@ -63768,7 +63784,7 @@
         </is>
       </c>
       <c r="L401" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M401" t="n">
         <v>625030413</v>
@@ -63799,7 +63815,7 @@
         <v>625030413</v>
       </c>
       <c r="W401" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X401" t="n">
         <v>13</v>
@@ -64080,7 +64096,7 @@
         </is>
       </c>
       <c r="L403" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M403" t="n">
         <v>625040140</v>
@@ -64111,7 +64127,7 @@
         <v>625040140</v>
       </c>
       <c r="W403" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X403" t="n">
         <v>13</v>
@@ -64234,7 +64250,7 @@
         </is>
       </c>
       <c r="L404" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M404" t="n">
         <v>625040161</v>
@@ -64265,7 +64281,7 @@
         <v>625040161</v>
       </c>
       <c r="W404" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X404" t="n">
         <v>13</v>
@@ -65016,7 +65032,7 @@
         </is>
       </c>
       <c r="L409" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M409" t="n">
         <v>625040176</v>
@@ -65047,7 +65063,7 @@
         <v>625040176</v>
       </c>
       <c r="W409" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X409" t="n">
         <v>13</v>
@@ -65486,7 +65502,7 @@
         </is>
       </c>
       <c r="L412" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M412" t="n">
         <v>625040240</v>
@@ -65513,7 +65529,7 @@
         <v>625040240</v>
       </c>
       <c r="W412" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X412" t="n">
         <v>13</v>
@@ -65636,7 +65652,7 @@
         </is>
       </c>
       <c r="L413" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M413" t="n">
         <v>625040140</v>
@@ -65667,7 +65683,7 @@
         <v>625050005</v>
       </c>
       <c r="W413" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X413" t="n">
         <v>13</v>
@@ -65790,7 +65806,7 @@
         </is>
       </c>
       <c r="L414" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M414" t="n">
         <v>625050024</v>
@@ -65815,7 +65831,7 @@
         <v>625050024</v>
       </c>
       <c r="W414" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X414" t="n">
         <v>13</v>
@@ -66090,7 +66106,7 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M416" t="n">
         <v>625050029</v>
@@ -66125,7 +66141,7 @@
         <v>625050029</v>
       </c>
       <c r="W416" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X416" t="n">
         <v>13</v>
@@ -66248,7 +66264,7 @@
         </is>
       </c>
       <c r="L417" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M417" t="n">
         <v>625050053</v>
@@ -66275,7 +66291,7 @@
         <v>625050053</v>
       </c>
       <c r="W417" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X417" t="n">
         <v>13</v>
@@ -67022,7 +67038,7 @@
         </is>
       </c>
       <c r="L422" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M422" t="n">
         <v>625050129</v>
@@ -67049,7 +67065,7 @@
         <v>625050129</v>
       </c>
       <c r="W422" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X422" t="n">
         <v>13</v>
@@ -67172,7 +67188,7 @@
         </is>
       </c>
       <c r="L423" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M423" t="n">
         <v>625050130</v>
@@ -67203,7 +67219,7 @@
         <v>625050130</v>
       </c>
       <c r="W423" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X423" t="n">
         <v>13</v>
@@ -67388,13 +67404,13 @@
         </is>
       </c>
       <c r="AF424" t="n">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="AG424" t="n">
-        <v>415</v>
+        <v>772</v>
       </c>
       <c r="AH424" t="n">
-        <v>98.81</v>
+        <v>98.97</v>
       </c>
       <c r="AI424" t="inlineStr">
         <is>
@@ -67634,7 +67650,7 @@
         </is>
       </c>
       <c r="L426" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M426" t="n">
         <v>625050158</v>
@@ -67661,7 +67677,7 @@
         <v>625050158</v>
       </c>
       <c r="W426" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X426" t="n">
         <v>13</v>
@@ -67784,7 +67800,7 @@
         </is>
       </c>
       <c r="L427" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M427" t="n">
         <v>625050159</v>
@@ -67811,7 +67827,7 @@
         <v>625050159</v>
       </c>
       <c r="W427" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X427" t="n">
         <v>13</v>
@@ -68092,7 +68108,7 @@
         </is>
       </c>
       <c r="L429" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M429" t="n">
         <v>625050194</v>
@@ -68123,7 +68139,7 @@
         <v>625050194</v>
       </c>
       <c r="W429" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X429" t="n">
         <v>13</v>
@@ -68770,13 +68786,13 @@
         </is>
       </c>
       <c r="AF433" t="n">
-        <v>360</v>
+        <v>690</v>
       </c>
       <c r="AG433" t="n">
-        <v>356</v>
+        <v>685</v>
       </c>
       <c r="AH433" t="n">
-        <v>98.89</v>
+        <v>99.28</v>
       </c>
       <c r="AI433" t="inlineStr">
         <is>
@@ -68864,7 +68880,7 @@
         </is>
       </c>
       <c r="L434" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M434" t="n">
         <v>625050251</v>
@@ -68895,7 +68911,7 @@
         <v>625050251</v>
       </c>
       <c r="W434" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X434" t="n">
         <v>13</v>
@@ -69018,7 +69034,7 @@
         </is>
       </c>
       <c r="L435" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M435" t="n">
         <v>625050252</v>
@@ -69049,7 +69065,7 @@
         <v>625050252</v>
       </c>
       <c r="W435" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X435" t="n">
         <v>13</v>
@@ -69172,7 +69188,7 @@
         </is>
       </c>
       <c r="L436" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M436" t="n">
         <v>625050271</v>
@@ -69203,7 +69219,7 @@
         <v>625050271</v>
       </c>
       <c r="W436" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X436" t="n">
         <v>13</v>
@@ -69484,7 +69500,7 @@
         </is>
       </c>
       <c r="L438" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M438" t="n">
         <v>625060017</v>
@@ -69515,7 +69531,7 @@
         <v>625060017</v>
       </c>
       <c r="W438" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X438" t="n">
         <v>13</v>
@@ -69638,7 +69654,7 @@
         </is>
       </c>
       <c r="L439" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M439" t="n">
         <v>625060018</v>
@@ -69669,7 +69685,7 @@
         <v>625060018</v>
       </c>
       <c r="W439" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X439" t="n">
         <v>13</v>
@@ -69792,7 +69808,7 @@
         </is>
       </c>
       <c r="L440" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M440" t="n">
         <v>625060020</v>
@@ -69823,7 +69839,7 @@
         <v>625060020</v>
       </c>
       <c r="W440" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X440" t="n">
         <v>13</v>
@@ -69946,7 +69962,7 @@
         </is>
       </c>
       <c r="L441" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M441" t="n">
         <v>625060065</v>
@@ -69977,7 +69993,7 @@
         <v>625060065</v>
       </c>
       <c r="W441" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X441" t="n">
         <v>13</v>
@@ -70166,13 +70182,13 @@
         </is>
       </c>
       <c r="AF442" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="AG442" t="n">
-        <v>275</v>
+        <v>510</v>
       </c>
       <c r="AH442" t="n">
-        <v>98.20999999999999</v>
+        <v>98.08</v>
       </c>
       <c r="AI442" t="inlineStr">
         <is>
@@ -70260,7 +70276,7 @@
         </is>
       </c>
       <c r="L443" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="M443" t="n">
         <v>625070145</v>
@@ -70287,7 +70303,7 @@
         <v>625070145</v>
       </c>
       <c r="W443" t="n">
-        <v>369531</v>
+        <v>378947</v>
       </c>
       <c r="X443" t="n">
         <v>13</v>
